--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_20_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_20_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>955426.5475534372</v>
+        <v>950943.3450319744</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30009477.7956996</v>
+        <v>30009477.79569962</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7276951.394760772</v>
+        <v>7276951.394760769</v>
       </c>
     </row>
     <row r="9">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -1378,10 +1378,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>70.74152950806264</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>398.3019706430941</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>57.89215638146401</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>209.9888884907911</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>246.9558690742602</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>92.04650991037211</v>
       </c>
       <c r="H12" t="n">
-        <v>42.54002271080372</v>
+        <v>42.54002271080371</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>60.6970716615656</v>
+        <v>60.69707166156559</v>
       </c>
       <c r="T12" t="n">
         <v>136.1614894255189</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>41.0396424891772</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
@@ -1539,16 +1539,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>163.7000943114157</v>
       </c>
       <c r="H13" t="n">
-        <v>134.4071151528002</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>71.8766712439448</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>6.356991008623027</v>
+        <v>6.356991008623005</v>
       </c>
       <c r="S13" t="n">
-        <v>152.8483877177524</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>237.0848299533737</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3338237039372</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>193.3563038466648</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
@@ -1609,22 +1609,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>187.9163134000335</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>188.5045074397957</v>
+        <v>398.3019706430941</v>
       </c>
       <c r="H14" t="n">
-        <v>274.4717029063549</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>57.89215638146402</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.6118642180837</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1703,7 +1703,7 @@
         <v>92.04650991037211</v>
       </c>
       <c r="H15" t="n">
-        <v>42.54002271080372</v>
+        <v>42.54002271080371</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>60.6970716615656</v>
+        <v>60.69707166156559</v>
       </c>
       <c r="T15" t="n">
         <v>136.1614894255189</v>
@@ -1767,25 +1767,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>66.10656133456744</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>163.7000943114157</v>
+        <v>49.57718241570339</v>
       </c>
       <c r="H16" t="n">
         <v>134.4071151528002</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>71.87667124394481</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>152.8483877177524</v>
       </c>
       <c r="T16" t="n">
         <v>237.0848299533737</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3338237039372</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>398.3019706430941</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>57.89215638146402</v>
       </c>
       <c r="T17" t="n">
-        <v>209.9888884907911</v>
+        <v>117.0265640739666</v>
       </c>
       <c r="U17" t="n">
         <v>255.6118642180837</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>35.81958129070528</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1940,7 +1940,7 @@
         <v>92.04650991037211</v>
       </c>
       <c r="H18" t="n">
-        <v>42.54002271080372</v>
+        <v>42.54002271080371</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>60.6970716615656</v>
+        <v>60.69707166156559</v>
       </c>
       <c r="T18" t="n">
         <v>136.1614894255189</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>91.89478995046224</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
@@ -2019,10 +2019,10 @@
         <v>163.7000943114157</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>134.4071151528002</v>
       </c>
       <c r="I19" t="n">
-        <v>71.87667124394481</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,19 +2058,19 @@
         <v>237.0848299533737</v>
       </c>
       <c r="U19" t="n">
-        <v>163.3864917641527</v>
+        <v>277.3338237039372</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2083,16 +2083,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>151.9975927123653</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>398.3019706430941</v>
@@ -2134,16 +2134,16 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.9888884907911</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.6118642180837</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>135.6608210945166</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2177,7 +2177,7 @@
         <v>92.04650991037211</v>
       </c>
       <c r="H21" t="n">
-        <v>42.54002271080372</v>
+        <v>42.54002271080371</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>60.6970716615656</v>
+        <v>60.69707166156559</v>
       </c>
       <c r="T21" t="n">
         <v>136.1614894255189</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>151.0597063398283</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>6.356991008623019</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>186.2244606346139</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2320,22 +2320,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>274.4717029063549</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>57.89215638146402</v>
+        <v>57.89215638146403</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>255.6118642180837</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>284.7756265022789</v>
+        <v>343.3486940410851</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2414,7 +2414,7 @@
         <v>92.04650991037211</v>
       </c>
       <c r="H24" t="n">
-        <v>42.54002271080371</v>
+        <v>42.54002271080372</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>60.69707166156559</v>
+        <v>60.6970716615656</v>
       </c>
       <c r="T24" t="n">
         <v>136.1614894255189</v>
@@ -2487,13 +2487,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.7000943114157</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>134.4071151528002</v>
+        <v>91.81054500289413</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>152.8483877177524</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>237.0848299533737</v>
       </c>
       <c r="U25" t="n">
-        <v>42.99888472122677</v>
+        <v>277.3338237039372</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>232.4870356452454</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>254.5713400181026</v>
       </c>
       <c r="H26" t="n">
         <v>274.4717029063549</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>57.89215638146402</v>
+        <v>57.89215638146403</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -2651,7 +2651,7 @@
         <v>92.04650991037211</v>
       </c>
       <c r="H27" t="n">
-        <v>42.54002271080371</v>
+        <v>42.54002271080372</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>60.69707166156559</v>
+        <v>60.6970716615656</v>
       </c>
       <c r="T27" t="n">
         <v>136.1614894255189</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>124.1822075321084</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
@@ -2727,7 +2727,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>163.7000943114157</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>134.4071151528002</v>
@@ -2769,13 +2769,13 @@
         <v>237.0848299533737</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3338237039372</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>199.9085061038033</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>20.79065744780397</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>398.3019706430941</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>274.4717029063549</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>57.89215638146403</v>
       </c>
       <c r="T29" t="n">
-        <v>209.9888884907911</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>255.6118642180837</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>175.3753762110332</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -2888,7 +2888,7 @@
         <v>92.04650991037211</v>
       </c>
       <c r="H30" t="n">
-        <v>42.54002271080371</v>
+        <v>42.54002271080372</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>60.69707166156559</v>
+        <v>60.6970716615656</v>
       </c>
       <c r="T30" t="n">
         <v>136.1614894255189</v>
@@ -2952,22 +2952,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>163.7000943114157</v>
       </c>
       <c r="H31" t="n">
-        <v>59.42945030275334</v>
+        <v>134.4071151528002</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>6.356991008623012</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>152.8483877177524</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>237.0848299533737</v>
+        <v>156.6567390343384</v>
       </c>
       <c r="U31" t="n">
         <v>277.3338237039372</v>
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>157.5355448073048</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>57.89215638146403</v>
       </c>
       <c r="T32" t="n">
-        <v>16.20902092801953</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.6118642180837</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -3125,7 +3125,7 @@
         <v>92.04650991037211</v>
       </c>
       <c r="H33" t="n">
-        <v>42.54002271080371</v>
+        <v>42.54002271080372</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>60.69707166156559</v>
+        <v>60.6970716615656</v>
       </c>
       <c r="T33" t="n">
         <v>136.1614894255189</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>167.6336806804519</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.7000943114157</v>
       </c>
       <c r="H34" t="n">
         <v>134.4071151528002</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>71.87667124394481</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>152.8483877177524</v>
       </c>
       <c r="T34" t="n">
-        <v>149.4969740929308</v>
+        <v>237.0848299533737</v>
       </c>
       <c r="U34" t="n">
         <v>277.3338237039372</v>
@@ -3252,10 +3252,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>354.8620064422724</v>
       </c>
       <c r="D35" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
         <v>420.8729399924937</v>
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>274.4717029063549</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>57.89215638146402</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.9888884907911</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.6118642180837</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>71.53446698150151</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3362,7 +3362,7 @@
         <v>92.04650991037211</v>
       </c>
       <c r="H36" t="n">
-        <v>42.54002271080371</v>
+        <v>42.54002271080372</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>60.69707166156559</v>
+        <v>60.6970716615656</v>
       </c>
       <c r="T36" t="n">
         <v>136.1614894255189</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>163.7000943114157</v>
+        <v>23.81777682572553</v>
       </c>
       <c r="H37" t="n">
-        <v>134.4071151528002</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>152.8483877177524</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>66.31376780593239</v>
+        <v>237.0848299533737</v>
       </c>
       <c r="U37" t="n">
         <v>277.3338237039372</v>
@@ -3492,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3508,10 +3508,10 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>84.6631457531853</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>8.004034882575455</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3562,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -3599,7 +3599,7 @@
         <v>92.04650991037211</v>
       </c>
       <c r="H39" t="n">
-        <v>42.54002271080371</v>
+        <v>42.54002271080372</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>60.69707166156559</v>
+        <v>60.6970716615656</v>
       </c>
       <c r="T39" t="n">
         <v>136.1614894255189</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>166.0694157175346</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>46.99885398315304</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.7000943114157</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>71.87667124394481</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>237.0848299533737</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3338237039372</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3729,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3742,13 +3742,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>354.8620064422733</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>57.89215638146403</v>
       </c>
       <c r="T41" t="n">
-        <v>209.9888884907911</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.6118642180837</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>360.3721531918123</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3836,7 +3836,7 @@
         <v>92.04650991037211</v>
       </c>
       <c r="H42" t="n">
-        <v>42.54002271080371</v>
+        <v>42.54002271080372</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>60.69707166156559</v>
+        <v>60.6970716615656</v>
       </c>
       <c r="T42" t="n">
         <v>136.1614894255189</v>
@@ -3903,16 +3903,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>105.0163454718297</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>53.14187057369579</v>
+        <v>163.7000943114157</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>6.356991008623012</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>152.8483877177524</v>
       </c>
       <c r="T43" t="n">
-        <v>237.0848299533737</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>277.3338237039372</v>
@@ -3960,13 +3960,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3979,13 +3979,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>105.6748412069406</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>57.89215638146402</v>
+        <v>57.89215638146403</v>
       </c>
       <c r="T44" t="n">
-        <v>209.9888884907911</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>255.6118642180837</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>361.2004717094338</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4073,7 +4073,7 @@
         <v>92.04650991037211</v>
       </c>
       <c r="H45" t="n">
-        <v>42.54002271080371</v>
+        <v>42.54002271080372</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>60.69707166156559</v>
+        <v>60.6970716615656</v>
       </c>
       <c r="T45" t="n">
         <v>136.1614894255189</v>
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>118.9626671412338</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>163.7000943114157</v>
+        <v>139.4679953851659</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>6.356991008623012</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>152.8483877177524</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>237.0848299533737</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3338237039372</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -4203,7 +4203,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1368.72753129041</v>
+        <v>872.147259067626</v>
       </c>
       <c r="C11" t="n">
-        <v>941.8268013037105</v>
+        <v>445.2465290809261</v>
       </c>
       <c r="D11" t="n">
-        <v>941.8268013037105</v>
+        <v>445.2465290809261</v>
       </c>
       <c r="E11" t="n">
-        <v>870.370710891526</v>
+        <v>445.2465290809261</v>
       </c>
       <c r="F11" t="n">
         <v>445.2465290809261</v>
       </c>
       <c r="G11" t="n">
-        <v>42.92130620911382</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="H11" t="n">
-        <v>42.92130620911382</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="I11" t="n">
         <v>84.81242438636582</v>
       </c>
       <c r="J11" t="n">
-        <v>223.2074279870264</v>
+        <v>223.2074279870265</v>
       </c>
       <c r="K11" t="n">
-        <v>438.8706723956534</v>
+        <v>438.8706723956535</v>
       </c>
       <c r="L11" t="n">
-        <v>712.416533635036</v>
+        <v>712.4165336350362</v>
       </c>
       <c r="M11" t="n">
         <v>1021.935294493278</v>
@@ -5056,37 +5056,37 @@
         <v>1337.212136355668</v>
       </c>
       <c r="O11" t="n">
-        <v>1632.752137974934</v>
+        <v>1632.752137974935</v>
       </c>
       <c r="P11" t="n">
         <v>1879.382279157806</v>
       </c>
       <c r="Q11" t="n">
-        <v>2056.763172699933</v>
+        <v>2056.763172699934</v>
       </c>
       <c r="R11" t="n">
-        <v>2146.065310455691</v>
+        <v>2146.065310455692</v>
       </c>
       <c r="S11" t="n">
-        <v>2146.065310455691</v>
+        <v>2087.588384817849</v>
       </c>
       <c r="T11" t="n">
-        <v>2146.065310455691</v>
+        <v>1875.478396443313</v>
       </c>
       <c r="U11" t="n">
-        <v>2146.065310455691</v>
+        <v>1626.02802364103</v>
       </c>
       <c r="V11" t="n">
-        <v>1788.57589558194</v>
+        <v>1268.538608767279</v>
       </c>
       <c r="W11" t="n">
-        <v>1788.57589558194</v>
+        <v>872.147259067626</v>
       </c>
       <c r="X11" t="n">
-        <v>1788.57589558194</v>
+        <v>872.147259067626</v>
       </c>
       <c r="Y11" t="n">
-        <v>1788.57589558194</v>
+        <v>872.147259067626</v>
       </c>
     </row>
     <row r="12">
@@ -5114,34 +5114,34 @@
         <v>85.89102611901657</v>
       </c>
       <c r="H12" t="n">
-        <v>42.92130620911382</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="I12" t="n">
-        <v>86.72780340069542</v>
+        <v>86.72780340069545</v>
       </c>
       <c r="J12" t="n">
-        <v>166.0970193140478</v>
+        <v>293.7826705248882</v>
       </c>
       <c r="K12" t="n">
-        <v>314.4518100704811</v>
+        <v>442.1374612813216</v>
       </c>
       <c r="L12" t="n">
-        <v>521.4605472985278</v>
+        <v>649.1461985093684</v>
       </c>
       <c r="M12" t="n">
-        <v>766.1754707503067</v>
+        <v>893.8611219611475</v>
       </c>
       <c r="N12" t="n">
-        <v>1019.708674852682</v>
+        <v>1147.394326063523</v>
       </c>
       <c r="O12" t="n">
-        <v>1248.031308154675</v>
+        <v>1375.716959365516</v>
       </c>
       <c r="P12" t="n">
         <v>1555.824378604757</v>
       </c>
       <c r="Q12" t="n">
-        <v>1668.10954923374</v>
+        <v>1668.109549233739</v>
       </c>
       <c r="R12" t="n">
         <v>1815.69702447452</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>715.0188626601897</v>
+        <v>954.2369511198118</v>
       </c>
       <c r="C13" t="n">
-        <v>673.5646783276875</v>
+        <v>782.2643879987278</v>
       </c>
       <c r="D13" t="n">
-        <v>510.2479054544582</v>
+        <v>618.9476151254985</v>
       </c>
       <c r="E13" t="n">
-        <v>344.0396996073118</v>
+        <v>452.739409278352</v>
       </c>
       <c r="F13" t="n">
-        <v>344.0396996073118</v>
+        <v>280.8776350529124</v>
       </c>
       <c r="G13" t="n">
-        <v>178.6860689897201</v>
+        <v>115.5240044353207</v>
       </c>
       <c r="H13" t="n">
-        <v>42.92130620911382</v>
+        <v>115.5240044353207</v>
       </c>
       <c r="I13" t="n">
-        <v>42.92130620911382</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="J13" t="n">
-        <v>85.08605645578086</v>
+        <v>85.08605645578093</v>
       </c>
       <c r="K13" t="n">
-        <v>414.4766989644248</v>
+        <v>167.1940898504029</v>
       </c>
       <c r="L13" t="n">
-        <v>900.7952986208254</v>
+        <v>653.5126895068036</v>
       </c>
       <c r="M13" t="n">
-        <v>1017.230231374287</v>
+        <v>1183.483102723087</v>
       </c>
       <c r="N13" t="n">
-        <v>1379.434424381507</v>
+        <v>1530.807921759407</v>
       </c>
       <c r="O13" t="n">
-        <v>1860.004537895076</v>
+        <v>2011.378035272976</v>
       </c>
       <c r="P13" t="n">
-        <v>1944.928132214917</v>
+        <v>2096.301629592817</v>
       </c>
       <c r="Q13" t="n">
-        <v>2146.065310455691</v>
+        <v>2146.065310455692</v>
       </c>
       <c r="R13" t="n">
-        <v>2139.644107416678</v>
+        <v>2139.644107416679</v>
       </c>
       <c r="S13" t="n">
-        <v>1985.251796590665</v>
+        <v>2139.644107416679</v>
       </c>
       <c r="T13" t="n">
-        <v>1745.772170375136</v>
+        <v>1900.16448120115</v>
       </c>
       <c r="U13" t="n">
-        <v>1465.636994916614</v>
+        <v>1900.16448120115</v>
       </c>
       <c r="V13" t="n">
-        <v>1183.925527524643</v>
+        <v>1618.453013809179</v>
       </c>
       <c r="W13" t="n">
-        <v>1183.925527524643</v>
+        <v>1423.143615984265</v>
       </c>
       <c r="X13" t="n">
-        <v>941.3616309704477</v>
+        <v>1180.57971943007</v>
       </c>
       <c r="Y13" t="n">
-        <v>715.0188626601897</v>
+        <v>954.2369511198118</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1788.57589558194</v>
+        <v>1060.185168871358</v>
       </c>
       <c r="C14" t="n">
-        <v>1361.675165595241</v>
+        <v>870.370710891526</v>
       </c>
       <c r="D14" t="n">
-        <v>1361.675165595241</v>
+        <v>870.370710891526</v>
       </c>
       <c r="E14" t="n">
-        <v>935.6982257430981</v>
+        <v>870.370710891526</v>
       </c>
       <c r="F14" t="n">
-        <v>510.5740439324983</v>
+        <v>445.2465290809261</v>
       </c>
       <c r="G14" t="n">
-        <v>320.1654505589673</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="H14" t="n">
-        <v>42.92130620911382</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="I14" t="n">
-        <v>84.81242438636559</v>
+        <v>84.81242438636627</v>
       </c>
       <c r="J14" t="n">
-        <v>223.207427987026</v>
+        <v>223.2074279870269</v>
       </c>
       <c r="K14" t="n">
-        <v>438.8706723956528</v>
+        <v>438.8706723956536</v>
       </c>
       <c r="L14" t="n">
-        <v>712.4165336350354</v>
+        <v>712.4165336350362</v>
       </c>
       <c r="M14" t="n">
         <v>1021.935294493278</v>
@@ -5293,37 +5293,37 @@
         <v>1337.212136355668</v>
       </c>
       <c r="O14" t="n">
-        <v>1632.752137974934</v>
+        <v>1632.752137974935</v>
       </c>
       <c r="P14" t="n">
-        <v>1879.382279157805</v>
+        <v>1879.382279157807</v>
       </c>
       <c r="Q14" t="n">
-        <v>2056.763172699933</v>
+        <v>2056.763172699935</v>
       </c>
       <c r="R14" t="n">
-        <v>2146.065310455691</v>
+        <v>2146.065310455692</v>
       </c>
       <c r="S14" t="n">
-        <v>2146.065310455691</v>
+        <v>2087.58838481785</v>
       </c>
       <c r="T14" t="n">
-        <v>2146.065310455691</v>
+        <v>2087.58838481785</v>
       </c>
       <c r="U14" t="n">
-        <v>2146.065310455691</v>
+        <v>1829.394582577361</v>
       </c>
       <c r="V14" t="n">
-        <v>1788.57589558194</v>
+        <v>1471.90516770361</v>
       </c>
       <c r="W14" t="n">
-        <v>1788.57589558194</v>
+        <v>1471.90516770361</v>
       </c>
       <c r="X14" t="n">
-        <v>1788.57589558194</v>
+        <v>1060.185168871358</v>
       </c>
       <c r="Y14" t="n">
-        <v>1788.57589558194</v>
+        <v>1060.185168871358</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>928.929210748296</v>
+        <v>598.5609247671249</v>
       </c>
       <c r="C15" t="n">
-        <v>811.4233072658008</v>
+        <v>481.0550212846297</v>
       </c>
       <c r="D15" t="n">
-        <v>707.5833487810858</v>
+        <v>377.2150627999147</v>
       </c>
       <c r="E15" t="n">
-        <v>602.881415054023</v>
+        <v>272.5131290728519</v>
       </c>
       <c r="F15" t="n">
-        <v>509.2355847369272</v>
+        <v>178.8672987557561</v>
       </c>
       <c r="G15" t="n">
-        <v>416.2593121001877</v>
+        <v>85.89102611901659</v>
       </c>
       <c r="H15" t="n">
-        <v>373.2895921902849</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="I15" t="n">
-        <v>393.6387835374547</v>
+        <v>86.72780340069545</v>
       </c>
       <c r="J15" t="n">
-        <v>729.6064567909664</v>
+        <v>166.0970193140479</v>
       </c>
       <c r="K15" t="n">
-        <v>877.9612475473997</v>
+        <v>442.1374612813225</v>
       </c>
       <c r="L15" t="n">
-        <v>1084.969984775446</v>
+        <v>649.1461985093692</v>
       </c>
       <c r="M15" t="n">
-        <v>1329.684908227225</v>
+        <v>893.8611219611482</v>
       </c>
       <c r="N15" t="n">
-        <v>1583.218112329601</v>
+        <v>1147.394326063524</v>
       </c>
       <c r="O15" t="n">
-        <v>1811.540745631594</v>
+        <v>1375.716959365517</v>
       </c>
       <c r="P15" t="n">
-        <v>1991.648164870834</v>
+        <v>1555.824378604757</v>
       </c>
       <c r="Q15" t="n">
-        <v>2103.933335499817</v>
+        <v>1668.10954923374</v>
       </c>
       <c r="R15" t="n">
-        <v>2146.065310455691</v>
+        <v>1815.69702447452</v>
       </c>
       <c r="S15" t="n">
-        <v>2084.75513706017</v>
+        <v>1754.386851078999</v>
       </c>
       <c r="T15" t="n">
-        <v>1947.218279054595</v>
+        <v>1616.849993073424</v>
       </c>
       <c r="U15" t="n">
-        <v>1762.52097107592</v>
+        <v>1432.152685094749</v>
       </c>
       <c r="V15" t="n">
-        <v>1557.547832215186</v>
+        <v>1227.179546234015</v>
       </c>
       <c r="W15" t="n">
-        <v>1361.026455048403</v>
+        <v>1030.658169067232</v>
       </c>
       <c r="X15" t="n">
-        <v>1197.549108815066</v>
+        <v>867.1808228338953</v>
       </c>
       <c r="Y15" t="n">
-        <v>1057.856220168359</v>
+        <v>727.4879341871876</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>410.8140039856627</v>
+        <v>811.4092724456611</v>
       </c>
       <c r="C16" t="n">
-        <v>410.8140039856627</v>
+        <v>639.4367093245771</v>
       </c>
       <c r="D16" t="n">
-        <v>410.8140039856627</v>
+        <v>639.4367093245771</v>
       </c>
       <c r="E16" t="n">
-        <v>410.8140039856627</v>
+        <v>473.2285034774306</v>
       </c>
       <c r="F16" t="n">
-        <v>344.0396996073118</v>
+        <v>301.366729251991</v>
       </c>
       <c r="G16" t="n">
-        <v>178.6860689897201</v>
+        <v>251.288767215927</v>
       </c>
       <c r="H16" t="n">
-        <v>42.92130620911382</v>
+        <v>115.5240044353207</v>
       </c>
       <c r="I16" t="n">
-        <v>42.92130620911382</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="J16" t="n">
-        <v>163.0077731040017</v>
+        <v>85.08605645578092</v>
       </c>
       <c r="K16" t="n">
-        <v>492.3984156126457</v>
+        <v>414.4766989644249</v>
       </c>
       <c r="L16" t="n">
-        <v>978.7170152690462</v>
+        <v>900.7952986208254</v>
       </c>
       <c r="M16" t="n">
-        <v>1095.151948022508</v>
+        <v>1017.230231374287</v>
       </c>
       <c r="N16" t="n">
-        <v>1210.09516627968</v>
+        <v>1530.206372473339</v>
       </c>
       <c r="O16" t="n">
-        <v>1547.248333321769</v>
+        <v>2010.776485986908</v>
       </c>
       <c r="P16" t="n">
-        <v>1944.928132214917</v>
+        <v>2096.301629592817</v>
       </c>
       <c r="Q16" t="n">
-        <v>2146.065310455691</v>
+        <v>2146.065310455692</v>
       </c>
       <c r="R16" t="n">
-        <v>2146.065310455691</v>
+        <v>2146.065310455692</v>
       </c>
       <c r="S16" t="n">
-        <v>2146.065310455691</v>
+        <v>1991.67299962968</v>
       </c>
       <c r="T16" t="n">
-        <v>1906.585684240162</v>
+        <v>1752.193373414151</v>
       </c>
       <c r="U16" t="n">
-        <v>1626.450508781639</v>
+        <v>1752.193373414151</v>
       </c>
       <c r="V16" t="n">
-        <v>1344.739041389668</v>
+        <v>1470.48190602218</v>
       </c>
       <c r="W16" t="n">
-        <v>1069.886637562181</v>
+        <v>1470.48190602218</v>
       </c>
       <c r="X16" t="n">
-        <v>827.3227410079863</v>
+        <v>1227.918009467985</v>
       </c>
       <c r="Y16" t="n">
-        <v>600.9799726977284</v>
+        <v>1001.575241157727</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>870.370710891526</v>
+        <v>894.9462180064136</v>
       </c>
       <c r="C17" t="n">
-        <v>870.370710891526</v>
+        <v>468.0454880197136</v>
       </c>
       <c r="D17" t="n">
-        <v>870.370710891526</v>
+        <v>468.0454880197136</v>
       </c>
       <c r="E17" t="n">
-        <v>870.370710891526</v>
+        <v>468.0454880197136</v>
       </c>
       <c r="F17" t="n">
-        <v>445.2465290809261</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="G17" t="n">
-        <v>42.92130620911382</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="H17" t="n">
-        <v>42.92130620911382</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="I17" t="n">
-        <v>84.81242438636588</v>
+        <v>84.81242438636593</v>
       </c>
       <c r="J17" t="n">
-        <v>223.2074279870264</v>
+        <v>223.2074279870266</v>
       </c>
       <c r="K17" t="n">
-        <v>438.8706723956532</v>
+        <v>438.8706723956535</v>
       </c>
       <c r="L17" t="n">
-        <v>712.4165336350359</v>
+        <v>712.4165336350361</v>
       </c>
       <c r="M17" t="n">
-        <v>1021.935294493277</v>
+        <v>1021.935294493278</v>
       </c>
       <c r="N17" t="n">
-        <v>1337.212136355668</v>
+        <v>1337.212136355669</v>
       </c>
       <c r="O17" t="n">
-        <v>1632.752137974934</v>
+        <v>1632.752137974936</v>
       </c>
       <c r="P17" t="n">
-        <v>1879.382279157805</v>
+        <v>1879.382279157807</v>
       </c>
       <c r="Q17" t="n">
-        <v>2056.763172699933</v>
+        <v>2056.763172699935</v>
       </c>
       <c r="R17" t="n">
-        <v>2146.065310455691</v>
+        <v>2146.065310455692</v>
       </c>
       <c r="S17" t="n">
-        <v>2146.065310455691</v>
+        <v>2087.58838481785</v>
       </c>
       <c r="T17" t="n">
-        <v>1933.955322081154</v>
+        <v>1969.379734238085</v>
       </c>
       <c r="U17" t="n">
-        <v>1675.761519840666</v>
+        <v>1711.185931997597</v>
       </c>
       <c r="V17" t="n">
-        <v>1318.272104966915</v>
+        <v>1711.185931997597</v>
       </c>
       <c r="W17" t="n">
-        <v>1318.272104966915</v>
+        <v>1314.794582297944</v>
       </c>
       <c r="X17" t="n">
-        <v>906.5521061346626</v>
+        <v>1314.794582297944</v>
       </c>
       <c r="Y17" t="n">
-        <v>870.370710891526</v>
+        <v>1314.794582297944</v>
       </c>
     </row>
     <row r="18">
@@ -5585,13 +5585,13 @@
         <v>178.8672987557561</v>
       </c>
       <c r="G18" t="n">
-        <v>85.89102611901657</v>
+        <v>85.89102611901659</v>
       </c>
       <c r="H18" t="n">
-        <v>42.92130620911382</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="I18" t="n">
-        <v>86.72780340069542</v>
+        <v>63.27049755628362</v>
       </c>
       <c r="J18" t="n">
         <v>399.2381708097948</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>788.0287452726653</v>
+        <v>780.6970571058175</v>
       </c>
       <c r="C19" t="n">
-        <v>616.0561821515813</v>
+        <v>608.7244939847335</v>
       </c>
       <c r="D19" t="n">
-        <v>452.739409278352</v>
+        <v>608.7244939847335</v>
       </c>
       <c r="E19" t="n">
-        <v>452.739409278352</v>
+        <v>515.9014738327514</v>
       </c>
       <c r="F19" t="n">
-        <v>280.8776350529124</v>
+        <v>344.0396996073118</v>
       </c>
       <c r="G19" t="n">
-        <v>115.5240044353207</v>
+        <v>178.6860689897201</v>
       </c>
       <c r="H19" t="n">
-        <v>115.5240044353207</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="I19" t="n">
-        <v>42.92130620911382</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="J19" t="n">
-        <v>85.08605645578089</v>
+        <v>163.0077731040018</v>
       </c>
       <c r="K19" t="n">
-        <v>167.1940898504027</v>
+        <v>492.3984156126457</v>
       </c>
       <c r="L19" t="n">
-        <v>653.5126895068033</v>
+        <v>978.7170152690463</v>
       </c>
       <c r="M19" t="n">
-        <v>769.947622260265</v>
+        <v>1508.68742848533</v>
       </c>
       <c r="N19" t="n">
-        <v>1066.6782198082</v>
+        <v>1908.510246062611</v>
       </c>
       <c r="O19" t="n">
-        <v>1547.248333321769</v>
+        <v>2011.378035272977</v>
       </c>
       <c r="P19" t="n">
-        <v>1944.928132214917</v>
+        <v>2096.301629592817</v>
       </c>
       <c r="Q19" t="n">
-        <v>2146.065310455691</v>
+        <v>2146.065310455692</v>
       </c>
       <c r="R19" t="n">
-        <v>2146.065310455691</v>
+        <v>2146.065310455692</v>
       </c>
       <c r="S19" t="n">
-        <v>1991.672999629678</v>
+        <v>1991.67299962968</v>
       </c>
       <c r="T19" t="n">
-        <v>1752.193373414149</v>
+        <v>1752.193373414151</v>
       </c>
       <c r="U19" t="n">
-        <v>1587.156513046318</v>
+        <v>1472.058197955628</v>
       </c>
       <c r="V19" t="n">
-        <v>1305.445045654347</v>
+        <v>1472.058197955628</v>
       </c>
       <c r="W19" t="n">
-        <v>1030.59264182686</v>
+        <v>1197.205794128141</v>
       </c>
       <c r="X19" t="n">
-        <v>788.0287452726653</v>
+        <v>1197.205794128141</v>
       </c>
       <c r="Y19" t="n">
-        <v>788.0287452726653</v>
+        <v>970.8630258178832</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1726.216946164161</v>
+        <v>722.4906734307796</v>
       </c>
       <c r="C20" t="n">
-        <v>1299.316216177461</v>
+        <v>722.4906734307796</v>
       </c>
       <c r="D20" t="n">
-        <v>876.0235953624617</v>
+        <v>722.4906734307796</v>
       </c>
       <c r="E20" t="n">
-        <v>876.0235953624617</v>
+        <v>722.4906734307796</v>
       </c>
       <c r="F20" t="n">
         <v>722.4906734307796</v>
@@ -5749,13 +5749,13 @@
         <v>42.92130620911383</v>
       </c>
       <c r="I20" t="n">
-        <v>84.81242438636605</v>
+        <v>84.81242438636582</v>
       </c>
       <c r="J20" t="n">
-        <v>223.2074279870266</v>
+        <v>223.2074279870264</v>
       </c>
       <c r="K20" t="n">
-        <v>438.8706723956535</v>
+        <v>438.8706723956533</v>
       </c>
       <c r="L20" t="n">
         <v>712.416533635036</v>
@@ -5782,22 +5782,22 @@
         <v>2146.065310455691</v>
       </c>
       <c r="T20" t="n">
-        <v>2146.065310455691</v>
+        <v>1933.955322081155</v>
       </c>
       <c r="U20" t="n">
-        <v>2146.065310455691</v>
+        <v>1675.761519840666</v>
       </c>
       <c r="V20" t="n">
-        <v>2146.065310455691</v>
+        <v>1538.730387421963</v>
       </c>
       <c r="W20" t="n">
-        <v>2146.065310455691</v>
+        <v>1142.33903772231</v>
       </c>
       <c r="X20" t="n">
-        <v>2146.065310455691</v>
+        <v>1142.33903772231</v>
       </c>
       <c r="Y20" t="n">
-        <v>2146.065310455691</v>
+        <v>1142.33903772231</v>
       </c>
     </row>
     <row r="21">
@@ -5828,7 +5828,7 @@
         <v>42.92130620911383</v>
       </c>
       <c r="I21" t="n">
-        <v>63.27049755628359</v>
+        <v>86.72780340069545</v>
       </c>
       <c r="J21" t="n">
         <v>293.7826705248892</v>
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>682.1096796798978</v>
+        <v>687.8740369538353</v>
       </c>
       <c r="C22" t="n">
-        <v>682.1096796798978</v>
+        <v>515.9014738327513</v>
       </c>
       <c r="D22" t="n">
-        <v>682.1096796798978</v>
+        <v>515.9014738327513</v>
       </c>
       <c r="E22" t="n">
         <v>515.9014738327513</v>
@@ -5910,13 +5910,13 @@
         <v>42.92130620911383</v>
       </c>
       <c r="J22" t="n">
-        <v>85.08605645578089</v>
+        <v>85.08605645578092</v>
       </c>
       <c r="K22" t="n">
-        <v>167.1940898504027</v>
+        <v>167.1940898504028</v>
       </c>
       <c r="L22" t="n">
-        <v>487.8613674440713</v>
+        <v>487.861367444071</v>
       </c>
       <c r="M22" t="n">
         <v>1017.831780660355</v>
@@ -5934,28 +5934,28 @@
         <v>2146.065310455691</v>
       </c>
       <c r="R22" t="n">
-        <v>2139.644107416678</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="S22" t="n">
-        <v>2139.644107416678</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="T22" t="n">
-        <v>2139.644107416678</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="U22" t="n">
-        <v>1859.508931958156</v>
+        <v>1865.930134997169</v>
       </c>
       <c r="V22" t="n">
-        <v>1577.797464566185</v>
+        <v>1584.218667605198</v>
       </c>
       <c r="W22" t="n">
-        <v>1302.945060738698</v>
+        <v>1309.366263777711</v>
       </c>
       <c r="X22" t="n">
-        <v>1060.381164184503</v>
+        <v>1066.802367223516</v>
       </c>
       <c r="Y22" t="n">
-        <v>872.2756483919634</v>
+        <v>840.4595989132579</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>320.1654505589673</v>
+        <v>1320.923157858556</v>
       </c>
       <c r="C23" t="n">
-        <v>320.1654505589673</v>
+        <v>894.0224278718561</v>
       </c>
       <c r="D23" t="n">
-        <v>320.1654505589673</v>
+        <v>894.0224278718561</v>
       </c>
       <c r="E23" t="n">
-        <v>320.1654505589673</v>
+        <v>468.0454880197136</v>
       </c>
       <c r="F23" t="n">
-        <v>320.1654505589673</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="G23" t="n">
-        <v>320.1654505589673</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="H23" t="n">
         <v>42.92130620911383</v>
       </c>
       <c r="I23" t="n">
-        <v>84.81242438636588</v>
+        <v>84.81242438636582</v>
       </c>
       <c r="J23" t="n">
-        <v>223.2074279870265</v>
+        <v>223.2074279870264</v>
       </c>
       <c r="K23" t="n">
-        <v>438.8706723956533</v>
+        <v>438.8706723956534</v>
       </c>
       <c r="L23" t="n">
-        <v>712.416533635036</v>
+        <v>712.4165336350359</v>
       </c>
       <c r="M23" t="n">
         <v>1021.935294493278</v>
@@ -6022,19 +6022,19 @@
         <v>2087.588384817849</v>
       </c>
       <c r="U23" t="n">
-        <v>1829.39458257736</v>
+        <v>2087.588384817849</v>
       </c>
       <c r="V23" t="n">
-        <v>1829.39458257736</v>
+        <v>2087.588384817849</v>
       </c>
       <c r="W23" t="n">
-        <v>1433.003232877707</v>
+        <v>2087.588384817849</v>
       </c>
       <c r="X23" t="n">
-        <v>1145.351084895607</v>
+        <v>1740.771522150086</v>
       </c>
       <c r="Y23" t="n">
-        <v>740.0138148504973</v>
+        <v>1740.771522150086</v>
       </c>
     </row>
     <row r="24">
@@ -6065,22 +6065,22 @@
         <v>42.92130620911383</v>
       </c>
       <c r="I24" t="n">
-        <v>63.2704975562836</v>
+        <v>63.27049755628359</v>
       </c>
       <c r="J24" t="n">
-        <v>142.639713469636</v>
+        <v>399.2381708097948</v>
       </c>
       <c r="K24" t="n">
-        <v>290.9945042260694</v>
+        <v>547.5929615662282</v>
       </c>
       <c r="L24" t="n">
-        <v>498.0032414541162</v>
+        <v>754.6016987942749</v>
       </c>
       <c r="M24" t="n">
-        <v>742.7181649058953</v>
+        <v>999.3166222460538</v>
       </c>
       <c r="N24" t="n">
-        <v>996.2513690082708</v>
+        <v>1252.849826348429</v>
       </c>
       <c r="O24" t="n">
         <v>1481.172459650423</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1017.399015674211</v>
+        <v>637.1567722959212</v>
       </c>
       <c r="C25" t="n">
-        <v>845.4264525531271</v>
+        <v>465.1842091748372</v>
       </c>
       <c r="D25" t="n">
-        <v>682.1096796798978</v>
+        <v>301.8674363016079</v>
       </c>
       <c r="E25" t="n">
-        <v>515.9014738327513</v>
+        <v>135.6592304544614</v>
       </c>
       <c r="F25" t="n">
-        <v>344.0396996073118</v>
+        <v>135.6592304544614</v>
       </c>
       <c r="G25" t="n">
-        <v>178.6860689897201</v>
+        <v>135.6592304544614</v>
       </c>
       <c r="H25" t="n">
         <v>42.92130620911383</v>
@@ -6147,19 +6147,19 @@
         <v>42.92130620911383</v>
       </c>
       <c r="J25" t="n">
-        <v>85.08605645578092</v>
+        <v>85.08605645578089</v>
       </c>
       <c r="K25" t="n">
-        <v>167.1940898504028</v>
+        <v>167.1940898504027</v>
       </c>
       <c r="L25" t="n">
-        <v>487.861367444071</v>
+        <v>653.5126895068033</v>
       </c>
       <c r="M25" t="n">
-        <v>1017.831780660355</v>
+        <v>1183.483102723087</v>
       </c>
       <c r="N25" t="n">
-        <v>1530.807921759407</v>
+        <v>1696.459243822139</v>
       </c>
       <c r="O25" t="n">
         <v>2011.378035272976</v>
@@ -6174,25 +6174,25 @@
         <v>2146.065310455691</v>
       </c>
       <c r="S25" t="n">
-        <v>1991.672999629679</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="T25" t="n">
-        <v>1752.19337341415</v>
+        <v>1906.585684240162</v>
       </c>
       <c r="U25" t="n">
-        <v>1708.760156524022</v>
+        <v>1626.45050878164</v>
       </c>
       <c r="V25" t="n">
-        <v>1708.760156524022</v>
+        <v>1344.739041389669</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.907752696535</v>
+        <v>1069.886637562182</v>
       </c>
       <c r="X25" t="n">
-        <v>1433.907752696535</v>
+        <v>827.3227410079868</v>
       </c>
       <c r="Y25" t="n">
-        <v>1207.564984386277</v>
+        <v>827.3227410079868</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1829.394582577361</v>
+        <v>1004.20894824072</v>
       </c>
       <c r="C26" t="n">
-        <v>1594.559193036709</v>
+        <v>577.3082182540204</v>
       </c>
       <c r="D26" t="n">
-        <v>1171.266572221709</v>
+        <v>577.3082182540204</v>
       </c>
       <c r="E26" t="n">
-        <v>745.289632369567</v>
+        <v>577.3082182540204</v>
       </c>
       <c r="F26" t="n">
-        <v>320.1654505589673</v>
+        <v>577.3082182540204</v>
       </c>
       <c r="G26" t="n">
         <v>320.1654505589673</v>
       </c>
       <c r="H26" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="I26" t="n">
-        <v>84.81242438636582</v>
+        <v>84.81242438636588</v>
       </c>
       <c r="J26" t="n">
         <v>223.2074279870264</v>
@@ -6232,7 +6232,7 @@
         <v>438.8706723956533</v>
       </c>
       <c r="L26" t="n">
-        <v>712.416533635036</v>
+        <v>712.4165336350359</v>
       </c>
       <c r="M26" t="n">
         <v>1021.935294493278</v>
@@ -6247,31 +6247,31 @@
         <v>1879.382279157806</v>
       </c>
       <c r="Q26" t="n">
-        <v>2056.763172699935</v>
+        <v>2056.763172699934</v>
       </c>
       <c r="R26" t="n">
-        <v>2146.065310455692</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="S26" t="n">
-        <v>2087.58838481785</v>
+        <v>2087.588384817849</v>
       </c>
       <c r="T26" t="n">
-        <v>2087.58838481785</v>
+        <v>2087.588384817849</v>
       </c>
       <c r="U26" t="n">
-        <v>1829.394582577361</v>
+        <v>1829.39458257736</v>
       </c>
       <c r="V26" t="n">
-        <v>1829.394582577361</v>
+        <v>1829.39458257736</v>
       </c>
       <c r="W26" t="n">
-        <v>1829.394582577361</v>
+        <v>1829.39458257736</v>
       </c>
       <c r="X26" t="n">
-        <v>1829.394582577361</v>
+        <v>1829.39458257736</v>
       </c>
       <c r="Y26" t="n">
-        <v>1829.394582577361</v>
+        <v>1424.05731253225</v>
       </c>
     </row>
     <row r="27">
@@ -6296,37 +6296,37 @@
         <v>178.8672987557561</v>
       </c>
       <c r="G27" t="n">
-        <v>85.89102611901659</v>
+        <v>85.89102611901657</v>
       </c>
       <c r="H27" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="I27" t="n">
-        <v>86.72780340069545</v>
+        <v>63.27049755628359</v>
       </c>
       <c r="J27" t="n">
-        <v>166.0970193140479</v>
+        <v>399.2381708097948</v>
       </c>
       <c r="K27" t="n">
-        <v>314.4518100704813</v>
+        <v>547.5929615662282</v>
       </c>
       <c r="L27" t="n">
-        <v>521.460547298528</v>
+        <v>754.6016987942749</v>
       </c>
       <c r="M27" t="n">
-        <v>766.1754707503071</v>
+        <v>999.3166222460538</v>
       </c>
       <c r="N27" t="n">
-        <v>1147.394326063524</v>
+        <v>1252.849826348429</v>
       </c>
       <c r="O27" t="n">
-        <v>1375.716959365517</v>
+        <v>1481.172459650423</v>
       </c>
       <c r="P27" t="n">
-        <v>1555.824378604757</v>
+        <v>1661.279878889663</v>
       </c>
       <c r="Q27" t="n">
-        <v>1668.10954923374</v>
+        <v>1773.565049518645</v>
       </c>
       <c r="R27" t="n">
         <v>1815.69702447452</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>970.8630258178832</v>
+        <v>852.0453850566195</v>
       </c>
       <c r="C28" t="n">
-        <v>845.4264525531272</v>
+        <v>680.0728219355354</v>
       </c>
       <c r="D28" t="n">
-        <v>682.1096796798979</v>
+        <v>516.7560490623061</v>
       </c>
       <c r="E28" t="n">
-        <v>515.9014738327514</v>
+        <v>350.5478432151597</v>
       </c>
       <c r="F28" t="n">
-        <v>344.0396996073118</v>
+        <v>178.6860689897201</v>
       </c>
       <c r="G28" t="n">
         <v>178.6860689897201</v>
       </c>
       <c r="H28" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="I28" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="J28" t="n">
-        <v>163.0077731040018</v>
+        <v>85.08605645578089</v>
       </c>
       <c r="K28" t="n">
-        <v>492.3984156126457</v>
+        <v>414.4766989644248</v>
       </c>
       <c r="L28" t="n">
-        <v>978.7170152690463</v>
+        <v>524.4064050296605</v>
       </c>
       <c r="M28" t="n">
-        <v>1103.108498928928</v>
+        <v>1054.376818245944</v>
       </c>
       <c r="N28" t="n">
-        <v>1218.0517171861</v>
+        <v>1567.352959344996</v>
       </c>
       <c r="O28" t="n">
-        <v>1698.621830699669</v>
+        <v>1670.220748555362</v>
       </c>
       <c r="P28" t="n">
-        <v>2096.301629592817</v>
+        <v>1944.928132214917</v>
       </c>
       <c r="Q28" t="n">
-        <v>2146.065310455692</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="R28" t="n">
-        <v>2146.065310455692</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="S28" t="n">
-        <v>1991.67299962968</v>
+        <v>1991.672999629679</v>
       </c>
       <c r="T28" t="n">
-        <v>1752.193373414151</v>
+        <v>1752.19337341415</v>
       </c>
       <c r="U28" t="n">
-        <v>1472.058197955628</v>
+        <v>1752.19337341415</v>
       </c>
       <c r="V28" t="n">
-        <v>1472.058197955628</v>
+        <v>1470.481906022179</v>
       </c>
       <c r="W28" t="n">
-        <v>1197.205794128141</v>
+        <v>1268.554122078943</v>
       </c>
       <c r="X28" t="n">
-        <v>1197.205794128141</v>
+        <v>1268.554122078943</v>
       </c>
       <c r="Y28" t="n">
-        <v>970.8630258178832</v>
+        <v>1042.211353768685</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1297.271440878226</v>
+        <v>1147.614855241379</v>
       </c>
       <c r="C29" t="n">
-        <v>870.370710891526</v>
+        <v>1147.614855241379</v>
       </c>
       <c r="D29" t="n">
-        <v>870.370710891526</v>
+        <v>1147.614855241379</v>
       </c>
       <c r="E29" t="n">
-        <v>870.370710891526</v>
+        <v>1147.614855241379</v>
       </c>
       <c r="F29" t="n">
-        <v>445.2465290809261</v>
+        <v>722.4906734307796</v>
       </c>
       <c r="G29" t="n">
-        <v>42.92130620911384</v>
+        <v>320.1654505589673</v>
       </c>
       <c r="H29" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="I29" t="n">
         <v>84.81242438636582</v>
@@ -6466,10 +6466,10 @@
         <v>223.2074279870262</v>
       </c>
       <c r="K29" t="n">
-        <v>438.8706723956532</v>
+        <v>438.8706723956531</v>
       </c>
       <c r="L29" t="n">
-        <v>712.4165336350359</v>
+        <v>712.4165336350356</v>
       </c>
       <c r="M29" t="n">
         <v>1021.935294493278</v>
@@ -6481,34 +6481,34 @@
         <v>1632.752137974935</v>
       </c>
       <c r="P29" t="n">
-        <v>1879.382279157807</v>
+        <v>1879.382279157806</v>
       </c>
       <c r="Q29" t="n">
-        <v>2056.763172699935</v>
+        <v>2056.763172699934</v>
       </c>
       <c r="R29" t="n">
-        <v>2146.065310455692</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="S29" t="n">
-        <v>2146.065310455692</v>
+        <v>2087.588384817849</v>
       </c>
       <c r="T29" t="n">
-        <v>1933.955322081156</v>
+        <v>2087.588384817849</v>
       </c>
       <c r="U29" t="n">
-        <v>1675.761519840667</v>
+        <v>2087.588384817849</v>
       </c>
       <c r="V29" t="n">
-        <v>1318.272104966917</v>
+        <v>1730.098969944098</v>
       </c>
       <c r="W29" t="n">
-        <v>1318.272104966917</v>
+        <v>1552.952125286489</v>
       </c>
       <c r="X29" t="n">
-        <v>1318.272104966917</v>
+        <v>1552.952125286489</v>
       </c>
       <c r="Y29" t="n">
-        <v>1318.272104966917</v>
+        <v>1147.614855241379</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>928.9292107482974</v>
+        <v>598.5609247671249</v>
       </c>
       <c r="C30" t="n">
-        <v>811.4233072658021</v>
+        <v>481.0550212846297</v>
       </c>
       <c r="D30" t="n">
-        <v>707.5833487810871</v>
+        <v>377.2150627999147</v>
       </c>
       <c r="E30" t="n">
-        <v>602.8814150540244</v>
+        <v>272.5131290728519</v>
       </c>
       <c r="F30" t="n">
-        <v>509.2355847369286</v>
+        <v>178.8672987557561</v>
       </c>
       <c r="G30" t="n">
-        <v>416.259312100189</v>
+        <v>85.89102611901657</v>
       </c>
       <c r="H30" t="n">
-        <v>373.2895921902863</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="I30" t="n">
-        <v>393.6387835374561</v>
+        <v>63.27049755628359</v>
       </c>
       <c r="J30" t="n">
-        <v>473.0079994508085</v>
+        <v>399.2381708097948</v>
       </c>
       <c r="K30" t="n">
-        <v>621.3627902072419</v>
+        <v>547.5929615662282</v>
       </c>
       <c r="L30" t="n">
-        <v>828.3715274352886</v>
+        <v>754.6016987942749</v>
       </c>
       <c r="M30" t="n">
-        <v>1073.086450887068</v>
+        <v>999.3166222460538</v>
       </c>
       <c r="N30" t="n">
-        <v>1477.762612044696</v>
+        <v>1252.849826348429</v>
       </c>
       <c r="O30" t="n">
-        <v>1706.085245346689</v>
+        <v>1481.172459650423</v>
       </c>
       <c r="P30" t="n">
-        <v>1886.19266458593</v>
+        <v>1661.279878889663</v>
       </c>
       <c r="Q30" t="n">
-        <v>1998.477835214912</v>
+        <v>1773.565049518645</v>
       </c>
       <c r="R30" t="n">
-        <v>2146.065310455692</v>
+        <v>1815.69702447452</v>
       </c>
       <c r="S30" t="n">
-        <v>2084.755137060171</v>
+        <v>1754.386851078999</v>
       </c>
       <c r="T30" t="n">
-        <v>1947.218279054597</v>
+        <v>1616.849993073424</v>
       </c>
       <c r="U30" t="n">
-        <v>1762.520971075921</v>
+        <v>1432.152685094749</v>
       </c>
       <c r="V30" t="n">
-        <v>1557.547832215188</v>
+        <v>1227.179546234015</v>
       </c>
       <c r="W30" t="n">
-        <v>1361.026455048405</v>
+        <v>1030.658169067232</v>
       </c>
       <c r="X30" t="n">
-        <v>1197.549108815068</v>
+        <v>867.1808228338953</v>
       </c>
       <c r="Y30" t="n">
-        <v>1057.85622016836</v>
+        <v>727.4879341871876</v>
       </c>
     </row>
     <row r="31">
@@ -6597,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>440.1664588327041</v>
+        <v>682.2204685755422</v>
       </c>
       <c r="C31" t="n">
-        <v>440.1664588327041</v>
+        <v>510.2479054544582</v>
       </c>
       <c r="D31" t="n">
-        <v>440.1664588327041</v>
+        <v>510.2479054544582</v>
       </c>
       <c r="E31" t="n">
-        <v>440.1664588327041</v>
+        <v>344.0396996073118</v>
       </c>
       <c r="F31" t="n">
-        <v>268.3046846072644</v>
+        <v>344.0396996073118</v>
       </c>
       <c r="G31" t="n">
-        <v>102.9510539896728</v>
+        <v>178.6860689897201</v>
       </c>
       <c r="H31" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="I31" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="J31" t="n">
-        <v>85.08605645578092</v>
+        <v>85.08605645578089</v>
       </c>
       <c r="K31" t="n">
-        <v>167.1940898504028</v>
+        <v>167.1940898504027</v>
       </c>
       <c r="L31" t="n">
-        <v>487.8613674440719</v>
+        <v>487.8613674440713</v>
       </c>
       <c r="M31" t="n">
         <v>1017.831780660355</v>
@@ -6636,37 +6636,37 @@
         <v>1530.807921759407</v>
       </c>
       <c r="O31" t="n">
-        <v>2011.378035272977</v>
+        <v>2011.378035272976</v>
       </c>
       <c r="P31" t="n">
-        <v>2096.301629592817</v>
+        <v>2096.301629592816</v>
       </c>
       <c r="Q31" t="n">
-        <v>2146.065310455692</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="R31" t="n">
-        <v>2139.644107416679</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="S31" t="n">
-        <v>1985.251796590667</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="T31" t="n">
-        <v>1745.772170375138</v>
+        <v>1987.826180117976</v>
       </c>
       <c r="U31" t="n">
-        <v>1465.636994916615</v>
+        <v>1707.691004659453</v>
       </c>
       <c r="V31" t="n">
-        <v>1183.925527524644</v>
+        <v>1425.979537267482</v>
       </c>
       <c r="W31" t="n">
-        <v>909.0731236971569</v>
+        <v>1151.127133439995</v>
       </c>
       <c r="X31" t="n">
-        <v>666.509227142962</v>
+        <v>908.5632368858002</v>
       </c>
       <c r="Y31" t="n">
-        <v>440.1664588327041</v>
+        <v>682.2204685755422</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1298.124198919768</v>
+        <v>1027.665962832597</v>
       </c>
       <c r="C32" t="n">
-        <v>871.2234689330685</v>
+        <v>1027.665962832597</v>
       </c>
       <c r="D32" t="n">
-        <v>871.2234689330685</v>
+        <v>604.3733420175977</v>
       </c>
       <c r="E32" t="n">
         <v>445.2465290809261</v>
@@ -6691,19 +6691,19 @@
         <v>445.2465290809261</v>
       </c>
       <c r="G32" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="H32" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="I32" t="n">
-        <v>84.81242438636582</v>
+        <v>84.81242438636588</v>
       </c>
       <c r="J32" t="n">
-        <v>223.2074279870262</v>
+        <v>223.2074279870264</v>
       </c>
       <c r="K32" t="n">
-        <v>438.8706723956532</v>
+        <v>438.8706723956533</v>
       </c>
       <c r="L32" t="n">
         <v>712.4165336350359</v>
@@ -6718,34 +6718,34 @@
         <v>1632.752137974935</v>
       </c>
       <c r="P32" t="n">
-        <v>1879.382279157807</v>
+        <v>1879.382279157806</v>
       </c>
       <c r="Q32" t="n">
-        <v>2056.763172699935</v>
+        <v>2056.763172699934</v>
       </c>
       <c r="R32" t="n">
-        <v>2146.065310455692</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="S32" t="n">
-        <v>2146.065310455692</v>
+        <v>2087.588384817849</v>
       </c>
       <c r="T32" t="n">
-        <v>2129.692562043551</v>
+        <v>2087.588384817849</v>
       </c>
       <c r="U32" t="n">
-        <v>2129.692562043551</v>
+        <v>1829.39458257736</v>
       </c>
       <c r="V32" t="n">
-        <v>2129.692562043551</v>
+        <v>1829.39458257736</v>
       </c>
       <c r="W32" t="n">
-        <v>2129.692562043551</v>
+        <v>1433.003232877707</v>
       </c>
       <c r="X32" t="n">
-        <v>1717.972563211298</v>
+        <v>1433.003232877707</v>
       </c>
       <c r="Y32" t="n">
-        <v>1717.972563211298</v>
+        <v>1027.665962832597</v>
       </c>
     </row>
     <row r="33">
@@ -6770,37 +6770,37 @@
         <v>178.8672987557561</v>
       </c>
       <c r="G33" t="n">
-        <v>85.89102611901659</v>
+        <v>85.89102611901657</v>
       </c>
       <c r="H33" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="I33" t="n">
-        <v>86.72780340069545</v>
+        <v>63.27049755628359</v>
       </c>
       <c r="J33" t="n">
-        <v>166.0970193140479</v>
+        <v>399.2381708097948</v>
       </c>
       <c r="K33" t="n">
-        <v>314.4518100704813</v>
+        <v>547.5929615662282</v>
       </c>
       <c r="L33" t="n">
-        <v>521.460547298528</v>
+        <v>754.6016987942749</v>
       </c>
       <c r="M33" t="n">
-        <v>766.1754707503071</v>
+        <v>999.3166222460538</v>
       </c>
       <c r="N33" t="n">
-        <v>1019.708674852683</v>
+        <v>1252.849826348429</v>
       </c>
       <c r="O33" t="n">
-        <v>1248.031308154676</v>
+        <v>1481.172459650423</v>
       </c>
       <c r="P33" t="n">
-        <v>1428.138727393916</v>
+        <v>1661.279878889663</v>
       </c>
       <c r="Q33" t="n">
-        <v>1668.10954923374</v>
+        <v>1773.565049518645</v>
       </c>
       <c r="R33" t="n">
         <v>1815.69702447452</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>344.8942748368665</v>
+        <v>746.1673765538944</v>
       </c>
       <c r="C34" t="n">
-        <v>344.8942748368665</v>
+        <v>746.1673765538944</v>
       </c>
       <c r="D34" t="n">
-        <v>344.8942748368665</v>
+        <v>582.8506036806651</v>
       </c>
       <c r="E34" t="n">
-        <v>178.6860689897201</v>
+        <v>416.6423978335187</v>
       </c>
       <c r="F34" t="n">
-        <v>178.6860689897201</v>
+        <v>416.6423978335187</v>
       </c>
       <c r="G34" t="n">
-        <v>178.6860689897201</v>
+        <v>251.288767215927</v>
       </c>
       <c r="H34" t="n">
-        <v>42.92130620911384</v>
+        <v>115.5240044353207</v>
       </c>
       <c r="I34" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="J34" t="n">
         <v>163.0077731040018</v>
@@ -6864,46 +6864,46 @@
         <v>492.3984156126457</v>
       </c>
       <c r="L34" t="n">
-        <v>602.3281216778814</v>
+        <v>978.7170152690463</v>
       </c>
       <c r="M34" t="n">
-        <v>718.7630544313431</v>
+        <v>1095.151948022508</v>
       </c>
       <c r="N34" t="n">
-        <v>1066.678219808201</v>
+        <v>1210.09516627968</v>
       </c>
       <c r="O34" t="n">
-        <v>1547.24833332177</v>
+        <v>1547.248333321769</v>
       </c>
       <c r="P34" t="n">
-        <v>1944.928132214918</v>
+        <v>1944.928132214917</v>
       </c>
       <c r="Q34" t="n">
-        <v>2146.065310455692</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="R34" t="n">
-        <v>2146.065310455692</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="S34" t="n">
-        <v>1991.67299962968</v>
+        <v>1991.672999629679</v>
       </c>
       <c r="T34" t="n">
-        <v>1840.665955091366</v>
+        <v>1752.19337341415</v>
       </c>
       <c r="U34" t="n">
-        <v>1560.530779632843</v>
+        <v>1472.058197955627</v>
       </c>
       <c r="V34" t="n">
-        <v>1278.819312240872</v>
+        <v>1190.346730563656</v>
       </c>
       <c r="W34" t="n">
-        <v>1003.966908413385</v>
+        <v>915.4943267361691</v>
       </c>
       <c r="X34" t="n">
-        <v>761.4030118591902</v>
+        <v>915.4943267361691</v>
       </c>
       <c r="Y34" t="n">
-        <v>535.0602435489322</v>
+        <v>915.4943267361691</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1595.482983171267</v>
+        <v>1675.761519840666</v>
       </c>
       <c r="C35" t="n">
-        <v>1168.582253184567</v>
+        <v>1317.315048686856</v>
       </c>
       <c r="D35" t="n">
-        <v>745.289632369567</v>
+        <v>894.0224278718561</v>
       </c>
       <c r="E35" t="n">
-        <v>745.289632369567</v>
+        <v>468.0454880197136</v>
       </c>
       <c r="F35" t="n">
-        <v>320.1654505589673</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="G35" t="n">
-        <v>320.1654505589673</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="H35" t="n">
         <v>42.92130620911383</v>
       </c>
       <c r="I35" t="n">
-        <v>84.81242438636588</v>
+        <v>84.81242438636582</v>
       </c>
       <c r="J35" t="n">
-        <v>223.2074279870265</v>
+        <v>223.2074279870262</v>
       </c>
       <c r="K35" t="n">
-        <v>438.8706723956534</v>
+        <v>438.8706723956531</v>
       </c>
       <c r="L35" t="n">
-        <v>712.4165336350361</v>
+        <v>712.4165336350356</v>
       </c>
       <c r="M35" t="n">
         <v>1021.935294493278</v>
@@ -6964,25 +6964,25 @@
         <v>2146.065310455691</v>
       </c>
       <c r="S35" t="n">
-        <v>2087.588384817849</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="T35" t="n">
-        <v>2087.588384817849</v>
+        <v>1933.955322081155</v>
       </c>
       <c r="U35" t="n">
-        <v>2087.588384817849</v>
+        <v>1675.761519840666</v>
       </c>
       <c r="V35" t="n">
-        <v>2087.588384817849</v>
+        <v>1675.761519840666</v>
       </c>
       <c r="W35" t="n">
-        <v>2087.588384817849</v>
+        <v>1675.761519840666</v>
       </c>
       <c r="X35" t="n">
-        <v>2015.331347462797</v>
+        <v>1675.761519840666</v>
       </c>
       <c r="Y35" t="n">
-        <v>2015.331347462797</v>
+        <v>1675.761519840666</v>
       </c>
     </row>
     <row r="36">
@@ -7013,16 +7013,16 @@
         <v>42.92130620911383</v>
       </c>
       <c r="I36" t="n">
-        <v>63.2704975562836</v>
+        <v>63.27049755628359</v>
       </c>
       <c r="J36" t="n">
-        <v>142.639713469636</v>
+        <v>399.2381708097948</v>
       </c>
       <c r="K36" t="n">
-        <v>290.9945042260694</v>
+        <v>547.5929615662282</v>
       </c>
       <c r="L36" t="n">
-        <v>498.0032414541162</v>
+        <v>754.6016987942749</v>
       </c>
       <c r="M36" t="n">
         <v>999.3166222460538</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>845.4264525531271</v>
+        <v>410.8140039856632</v>
       </c>
       <c r="C37" t="n">
-        <v>845.4264525531271</v>
+        <v>238.8414408645792</v>
       </c>
       <c r="D37" t="n">
-        <v>682.1096796798978</v>
+        <v>238.8414408645792</v>
       </c>
       <c r="E37" t="n">
-        <v>515.9014738327513</v>
+        <v>238.8414408645792</v>
       </c>
       <c r="F37" t="n">
-        <v>344.0396996073118</v>
+        <v>66.97966663913962</v>
       </c>
       <c r="G37" t="n">
-        <v>178.6860689897201</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="H37" t="n">
         <v>42.92130620911383</v>
@@ -7095,25 +7095,25 @@
         <v>42.92130620911383</v>
       </c>
       <c r="J37" t="n">
-        <v>163.0077731040018</v>
+        <v>85.08605645578089</v>
       </c>
       <c r="K37" t="n">
-        <v>245.1158064986237</v>
+        <v>167.1940898504027</v>
       </c>
       <c r="L37" t="n">
-        <v>437.2671459556864</v>
+        <v>487.8613674440713</v>
       </c>
       <c r="M37" t="n">
-        <v>553.7020787091481</v>
+        <v>1017.831780660355</v>
       </c>
       <c r="N37" t="n">
-        <v>1066.6782198082</v>
+        <v>1530.807921759407</v>
       </c>
       <c r="O37" t="n">
-        <v>1547.248333321769</v>
+        <v>2011.378035272976</v>
       </c>
       <c r="P37" t="n">
-        <v>1944.928132214917</v>
+        <v>2096.301629592816</v>
       </c>
       <c r="Q37" t="n">
         <v>2146.065310455691</v>
@@ -7122,25 +7122,25 @@
         <v>2146.065310455691</v>
       </c>
       <c r="S37" t="n">
-        <v>1991.672999629679</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="T37" t="n">
-        <v>1924.689395785303</v>
+        <v>1906.585684240162</v>
       </c>
       <c r="U37" t="n">
-        <v>1644.55422032678</v>
+        <v>1626.45050878164</v>
       </c>
       <c r="V37" t="n">
-        <v>1362.842752934809</v>
+        <v>1344.739041389669</v>
       </c>
       <c r="W37" t="n">
-        <v>1087.990349107322</v>
+        <v>1069.886637562182</v>
       </c>
       <c r="X37" t="n">
-        <v>845.4264525531271</v>
+        <v>827.3227410079868</v>
       </c>
       <c r="Y37" t="n">
-        <v>845.4264525531271</v>
+        <v>600.9799726977288</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>980.464547050035</v>
+        <v>1320.923157858556</v>
       </c>
       <c r="C38" t="n">
-        <v>553.5638170633351</v>
+        <v>894.0224278718561</v>
       </c>
       <c r="D38" t="n">
-        <v>468.0454880197136</v>
+        <v>894.0224278718561</v>
       </c>
       <c r="E38" t="n">
         <v>468.0454880197136</v>
@@ -7171,16 +7171,16 @@
         <v>42.92130620911383</v>
       </c>
       <c r="I38" t="n">
-        <v>84.8124243863659</v>
+        <v>84.81242438636582</v>
       </c>
       <c r="J38" t="n">
-        <v>223.2074279870265</v>
+        <v>223.2074279870264</v>
       </c>
       <c r="K38" t="n">
         <v>438.8706723956534</v>
       </c>
       <c r="L38" t="n">
-        <v>712.4165336350361</v>
+        <v>712.4165336350359</v>
       </c>
       <c r="M38" t="n">
         <v>1021.935294493278</v>
@@ -7201,25 +7201,25 @@
         <v>2146.065310455691</v>
       </c>
       <c r="S38" t="n">
-        <v>2146.065310455691</v>
+        <v>2137.980426735918</v>
       </c>
       <c r="T38" t="n">
-        <v>2146.065310455691</v>
+        <v>2137.980426735918</v>
       </c>
       <c r="U38" t="n">
-        <v>2146.065310455691</v>
+        <v>2137.980426735918</v>
       </c>
       <c r="V38" t="n">
-        <v>1788.575895581941</v>
+        <v>2137.980426735918</v>
       </c>
       <c r="W38" t="n">
-        <v>1392.184545882288</v>
+        <v>2137.980426735918</v>
       </c>
       <c r="X38" t="n">
-        <v>980.464547050035</v>
+        <v>1726.260427903665</v>
       </c>
       <c r="Y38" t="n">
-        <v>980.464547050035</v>
+        <v>1320.923157858556</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>42.92130620911383</v>
       </c>
       <c r="I39" t="n">
-        <v>86.72780340069545</v>
+        <v>63.27049755628359</v>
       </c>
       <c r="J39" t="n">
-        <v>293.7826705248892</v>
+        <v>399.2381708097948</v>
       </c>
       <c r="K39" t="n">
-        <v>442.1374612813225</v>
+        <v>547.5929615662282</v>
       </c>
       <c r="L39" t="n">
-        <v>649.1461985093692</v>
+        <v>754.6016987942749</v>
       </c>
       <c r="M39" t="n">
-        <v>893.8611219611482</v>
+        <v>999.3166222460538</v>
       </c>
       <c r="N39" t="n">
-        <v>1147.394326063524</v>
+        <v>1252.849826348429</v>
       </c>
       <c r="O39" t="n">
-        <v>1375.716959365517</v>
+        <v>1481.172459650423</v>
       </c>
       <c r="P39" t="n">
-        <v>1555.824378604757</v>
+        <v>1661.279878889663</v>
       </c>
       <c r="Q39" t="n">
-        <v>1668.10954923374</v>
+        <v>1773.565049518645</v>
       </c>
       <c r="R39" t="n">
         <v>1815.69702447452</v>
@@ -7308,49 +7308,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>762.8996369284312</v>
+        <v>446.5876618717163</v>
       </c>
       <c r="C40" t="n">
-        <v>590.9270738073471</v>
+        <v>278.84077730855</v>
       </c>
       <c r="D40" t="n">
-        <v>427.6103009341178</v>
+        <v>115.5240044353207</v>
       </c>
       <c r="E40" t="n">
-        <v>380.1367110521451</v>
+        <v>115.5240044353207</v>
       </c>
       <c r="F40" t="n">
-        <v>208.2749368267055</v>
+        <v>115.5240044353207</v>
       </c>
       <c r="G40" t="n">
-        <v>42.92130620911383</v>
+        <v>115.5240044353207</v>
       </c>
       <c r="H40" t="n">
-        <v>42.92130620911383</v>
+        <v>115.5240044353207</v>
       </c>
       <c r="I40" t="n">
         <v>42.92130620911383</v>
       </c>
       <c r="J40" t="n">
-        <v>163.0077731040018</v>
+        <v>85.08605645578089</v>
       </c>
       <c r="K40" t="n">
-        <v>492.3984156126457</v>
+        <v>167.1940898504027</v>
       </c>
       <c r="L40" t="n">
-        <v>978.7170152690463</v>
+        <v>487.8613674440713</v>
       </c>
       <c r="M40" t="n">
-        <v>1508.68742848533</v>
+        <v>1017.831780660355</v>
       </c>
       <c r="N40" t="n">
-        <v>1623.630646742502</v>
+        <v>1530.807921759407</v>
       </c>
       <c r="O40" t="n">
-        <v>1726.498435952867</v>
+        <v>2011.378035272976</v>
       </c>
       <c r="P40" t="n">
-        <v>1944.928132214917</v>
+        <v>2096.301629592816</v>
       </c>
       <c r="Q40" t="n">
         <v>2146.065310455691</v>
@@ -7365,19 +7365,19 @@
         <v>1752.19337341415</v>
       </c>
       <c r="U40" t="n">
-        <v>1752.19337341415</v>
+        <v>1472.058197955627</v>
       </c>
       <c r="V40" t="n">
-        <v>1470.481906022179</v>
+        <v>1190.346730563656</v>
       </c>
       <c r="W40" t="n">
-        <v>1195.629502194692</v>
+        <v>915.4943267361691</v>
       </c>
       <c r="X40" t="n">
-        <v>953.0656056404968</v>
+        <v>672.9304301819742</v>
       </c>
       <c r="Y40" t="n">
-        <v>953.0656056404968</v>
+        <v>446.5876618717163</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1675.761519840667</v>
+        <v>1318.238838821413</v>
       </c>
       <c r="C41" t="n">
-        <v>1317.315048686856</v>
+        <v>891.3381088347134</v>
       </c>
       <c r="D41" t="n">
-        <v>894.0224278718561</v>
+        <v>468.0454880197136</v>
       </c>
       <c r="E41" t="n">
         <v>468.0454880197136</v>
       </c>
       <c r="F41" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="G41" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="H41" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="I41" t="n">
-        <v>84.8124243863659</v>
+        <v>84.81242438636593</v>
       </c>
       <c r="J41" t="n">
         <v>223.2074279870265</v>
       </c>
       <c r="K41" t="n">
-        <v>438.8706723956534</v>
+        <v>438.8706723956533</v>
       </c>
       <c r="L41" t="n">
-        <v>712.4165336350361</v>
+        <v>712.4165336350359</v>
       </c>
       <c r="M41" t="n">
         <v>1021.935294493278</v>
@@ -7429,34 +7429,34 @@
         <v>1632.752137974935</v>
       </c>
       <c r="P41" t="n">
-        <v>1879.382279157807</v>
+        <v>1879.382279157806</v>
       </c>
       <c r="Q41" t="n">
-        <v>2056.763172699935</v>
+        <v>2056.763172699934</v>
       </c>
       <c r="R41" t="n">
-        <v>2146.065310455692</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="S41" t="n">
-        <v>2146.065310455692</v>
+        <v>2087.588384817849</v>
       </c>
       <c r="T41" t="n">
-        <v>1933.955322081156</v>
+        <v>2087.588384817849</v>
       </c>
       <c r="U41" t="n">
-        <v>1675.761519840667</v>
+        <v>2087.588384817849</v>
       </c>
       <c r="V41" t="n">
-        <v>1675.761519840667</v>
+        <v>2087.588384817849</v>
       </c>
       <c r="W41" t="n">
-        <v>1675.761519840667</v>
+        <v>2087.588384817849</v>
       </c>
       <c r="X41" t="n">
-        <v>1675.761519840667</v>
+        <v>1723.576108866523</v>
       </c>
       <c r="Y41" t="n">
-        <v>1675.761519840667</v>
+        <v>1318.238838821413</v>
       </c>
     </row>
     <row r="42">
@@ -7481,37 +7481,37 @@
         <v>178.8672987557561</v>
       </c>
       <c r="G42" t="n">
-        <v>85.89102611901659</v>
+        <v>85.89102611901657</v>
       </c>
       <c r="H42" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="I42" t="n">
-        <v>86.72780340069545</v>
+        <v>86.72780340069544</v>
       </c>
       <c r="J42" t="n">
-        <v>399.2381708097948</v>
+        <v>293.7826705248895</v>
       </c>
       <c r="K42" t="n">
-        <v>547.5929615662282</v>
+        <v>442.1374612813228</v>
       </c>
       <c r="L42" t="n">
-        <v>754.6016987942749</v>
+        <v>649.1461985093695</v>
       </c>
       <c r="M42" t="n">
-        <v>999.3166222460538</v>
+        <v>893.8611219611485</v>
       </c>
       <c r="N42" t="n">
-        <v>1252.849826348429</v>
+        <v>1147.394326063524</v>
       </c>
       <c r="O42" t="n">
-        <v>1481.172459650423</v>
+        <v>1375.716959365517</v>
       </c>
       <c r="P42" t="n">
-        <v>1661.279878889663</v>
+        <v>1555.824378604757</v>
       </c>
       <c r="Q42" t="n">
-        <v>1773.565049518645</v>
+        <v>1668.10954923374</v>
       </c>
       <c r="R42" t="n">
         <v>1815.69702447452</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>679.2452047741381</v>
+        <v>722.2440876854375</v>
       </c>
       <c r="C43" t="n">
-        <v>507.2726416530541</v>
+        <v>550.2715245643535</v>
       </c>
       <c r="D43" t="n">
-        <v>507.2726416530541</v>
+        <v>386.9547516911242</v>
       </c>
       <c r="E43" t="n">
-        <v>341.0644358059076</v>
+        <v>280.8776350529124</v>
       </c>
       <c r="F43" t="n">
-        <v>169.202661580468</v>
+        <v>280.8776350529124</v>
       </c>
       <c r="G43" t="n">
         <v>115.5240044353207</v>
@@ -7566,55 +7566,55 @@
         <v>115.5240044353207</v>
       </c>
       <c r="I43" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="J43" t="n">
-        <v>163.0077731040018</v>
+        <v>85.08605645578089</v>
       </c>
       <c r="K43" t="n">
-        <v>492.3984156126457</v>
+        <v>167.1940898504027</v>
       </c>
       <c r="L43" t="n">
-        <v>978.7170152690463</v>
+        <v>277.1237959156384</v>
       </c>
       <c r="M43" t="n">
-        <v>1095.151948022508</v>
+        <v>807.0942091319218</v>
       </c>
       <c r="N43" t="n">
-        <v>1210.09516627968</v>
+        <v>1320.070350230974</v>
       </c>
       <c r="O43" t="n">
-        <v>1547.24833332177</v>
+        <v>1800.640463744543</v>
       </c>
       <c r="P43" t="n">
-        <v>1944.928132214918</v>
+        <v>2096.301629592816</v>
       </c>
       <c r="Q43" t="n">
-        <v>2146.065310455692</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="R43" t="n">
-        <v>2139.644107416679</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="S43" t="n">
-        <v>2139.644107416679</v>
+        <v>1991.672999629679</v>
       </c>
       <c r="T43" t="n">
-        <v>1900.16448120115</v>
+        <v>1991.672999629679</v>
       </c>
       <c r="U43" t="n">
-        <v>1620.029305742628</v>
+        <v>1711.537824171156</v>
       </c>
       <c r="V43" t="n">
-        <v>1338.317838350657</v>
+        <v>1429.826356779185</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.317838350657</v>
+        <v>1154.973952951698</v>
       </c>
       <c r="X43" t="n">
-        <v>1095.753941796462</v>
+        <v>912.4100563975031</v>
       </c>
       <c r="Y43" t="n">
-        <v>869.4111734862038</v>
+        <v>912.4100563975031</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>894.9462180064136</v>
+        <v>1424.05731253225</v>
       </c>
       <c r="C44" t="n">
-        <v>468.0454880197136</v>
+        <v>1424.05731253225</v>
       </c>
       <c r="D44" t="n">
-        <v>468.0454880197136</v>
+        <v>1000.764691717251</v>
       </c>
       <c r="E44" t="n">
-        <v>468.0454880197136</v>
+        <v>574.7877518651081</v>
       </c>
       <c r="F44" t="n">
-        <v>42.92130620911384</v>
+        <v>149.6635700545083</v>
       </c>
       <c r="G44" t="n">
-        <v>42.92130620911384</v>
+        <v>149.6635700545083</v>
       </c>
       <c r="H44" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="I44" t="n">
-        <v>84.81242438636593</v>
+        <v>84.81242438636588</v>
       </c>
       <c r="J44" t="n">
-        <v>223.2074279870266</v>
+        <v>223.2074279870264</v>
       </c>
       <c r="K44" t="n">
-        <v>438.8706723956535</v>
+        <v>438.8706723956532</v>
       </c>
       <c r="L44" t="n">
-        <v>712.4165336350361</v>
+        <v>712.4165336350356</v>
       </c>
       <c r="M44" t="n">
         <v>1021.935294493278</v>
@@ -7663,37 +7663,37 @@
         <v>1337.212136355668</v>
       </c>
       <c r="O44" t="n">
-        <v>1632.752137974936</v>
+        <v>1632.752137974935</v>
       </c>
       <c r="P44" t="n">
-        <v>1879.382279157807</v>
+        <v>1879.382279157806</v>
       </c>
       <c r="Q44" t="n">
-        <v>2056.763172699935</v>
+        <v>2056.763172699934</v>
       </c>
       <c r="R44" t="n">
-        <v>2146.065310455692</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="S44" t="n">
-        <v>2087.58838481785</v>
+        <v>2087.588384817849</v>
       </c>
       <c r="T44" t="n">
-        <v>1875.478396443313</v>
+        <v>2087.588384817849</v>
       </c>
       <c r="U44" t="n">
-        <v>1617.284594202825</v>
+        <v>1829.39458257736</v>
       </c>
       <c r="V44" t="n">
-        <v>1259.795179329074</v>
+        <v>1829.39458257736</v>
       </c>
       <c r="W44" t="n">
-        <v>894.9462180064136</v>
+        <v>1829.39458257736</v>
       </c>
       <c r="X44" t="n">
-        <v>894.9462180064136</v>
+        <v>1829.39458257736</v>
       </c>
       <c r="Y44" t="n">
-        <v>894.9462180064136</v>
+        <v>1424.05731253225</v>
       </c>
     </row>
     <row r="45">
@@ -7718,25 +7718,25 @@
         <v>178.8672987557561</v>
       </c>
       <c r="G45" t="n">
-        <v>85.89102611901659</v>
+        <v>85.89102611901657</v>
       </c>
       <c r="H45" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="I45" t="n">
-        <v>86.72780340069545</v>
+        <v>86.72780340069544</v>
       </c>
       <c r="J45" t="n">
-        <v>293.7826705248892</v>
+        <v>293.7826705248895</v>
       </c>
       <c r="K45" t="n">
-        <v>442.1374612813225</v>
+        <v>442.1374612813228</v>
       </c>
       <c r="L45" t="n">
-        <v>649.1461985093692</v>
+        <v>649.1461985093695</v>
       </c>
       <c r="M45" t="n">
-        <v>893.8611219611482</v>
+        <v>893.8611219611485</v>
       </c>
       <c r="N45" t="n">
         <v>1147.394326063524</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>666.509227142962</v>
+        <v>690.9491794441858</v>
       </c>
       <c r="C46" t="n">
-        <v>546.3449168992915</v>
+        <v>518.9766163231018</v>
       </c>
       <c r="D46" t="n">
-        <v>546.3449168992915</v>
+        <v>355.6598434498725</v>
       </c>
       <c r="E46" t="n">
-        <v>380.1367110521451</v>
+        <v>355.6598434498725</v>
       </c>
       <c r="F46" t="n">
-        <v>208.2749368267055</v>
+        <v>183.7980692244329</v>
       </c>
       <c r="G46" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="H46" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="I46" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="J46" t="n">
         <v>163.0077731040018</v>
       </c>
       <c r="K46" t="n">
-        <v>492.3984156126457</v>
+        <v>245.1158064986236</v>
       </c>
       <c r="L46" t="n">
-        <v>814.9694702588906</v>
+        <v>355.0455125638592</v>
       </c>
       <c r="M46" t="n">
-        <v>931.4044030123523</v>
+        <v>885.0159257801427</v>
       </c>
       <c r="N46" t="n">
-        <v>1444.380544111404</v>
+        <v>1397.992066879195</v>
       </c>
       <c r="O46" t="n">
-        <v>1547.24833332177</v>
+        <v>1878.562180392764</v>
       </c>
       <c r="P46" t="n">
-        <v>1944.928132214918</v>
+        <v>1963.485774712605</v>
       </c>
       <c r="Q46" t="n">
-        <v>2146.065310455692</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="R46" t="n">
-        <v>2139.644107416679</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="S46" t="n">
-        <v>1985.251796590667</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="T46" t="n">
-        <v>1745.772170375138</v>
+        <v>1906.585684240162</v>
       </c>
       <c r="U46" t="n">
-        <v>1465.636994916615</v>
+        <v>1906.585684240162</v>
       </c>
       <c r="V46" t="n">
-        <v>1183.925527524644</v>
+        <v>1624.874216848191</v>
       </c>
       <c r="W46" t="n">
-        <v>909.0731236971569</v>
+        <v>1350.021813020704</v>
       </c>
       <c r="X46" t="n">
-        <v>666.509227142962</v>
+        <v>1107.457916466509</v>
       </c>
       <c r="Y46" t="n">
-        <v>666.509227142962</v>
+        <v>881.1151481562515</v>
       </c>
     </row>
   </sheetData>
@@ -8768,7 +8768,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>128.9754052634751</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>128.9754052634765</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -8850,16 +8850,16 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N13" t="n">
-        <v>249.7585603535841</v>
+        <v>234.7288896759071</v>
       </c>
       <c r="O13" t="n">
         <v>381.5174992961649</v>
@@ -8868,7 +8868,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>259.1903609496559</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>128.9754052634761</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>249.7804132464869</v>
@@ -9096,16 +9096,16 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O16" t="n">
-        <v>236.6518967997206</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P16" t="n">
-        <v>315.9153581548562</v>
+        <v>0.6076255414831877</v>
       </c>
       <c r="Q16" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9239,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>235.4961126219667</v>
+        <v>259.1903609496553</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N19" t="n">
-        <v>183.6236154452149</v>
+        <v>287.7571710304133</v>
       </c>
       <c r="O19" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>152.6696535911649</v>
+        <v>128.975405263476</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9564,7 +9564,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>212.866233867104</v>
+        <v>212.8662338671035</v>
       </c>
       <c r="M22" t="n">
         <v>417.7126065281028</v>
@@ -9716,7 +9716,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>259.1903609496554</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9731,7 +9731,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>259.1903609496552</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9801,7 +9801,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>212.8662338671035</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M25" t="n">
         <v>417.7126065281028</v>
@@ -9810,7 +9810,7 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O25" t="n">
-        <v>381.5174992961649</v>
+        <v>214.1929315560316</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>259.1903609496554</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9965,7 +9965,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>128.9754052634758</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L28" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>8.036920107494851</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O28" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>315.9153581548562</v>
+        <v>191.7007973128435</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>259.1903609496554</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10202,7 +10202,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>152.6696535911645</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10275,7 +10275,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>212.8662338671045</v>
+        <v>212.866233867104</v>
       </c>
       <c r="M31" t="n">
         <v>417.7126065281028</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>259.1903609496554</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>128.9754052634759</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10512,16 +10512,16 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>235.3251991107939</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>381.5174992961649</v>
+        <v>236.651896799721</v>
       </c>
       <c r="P34" t="n">
         <v>315.9153581548562</v>
@@ -10664,7 +10664,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>259.1903609496554</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10673,7 +10673,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>259.1903609496552</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10743,16 +10743,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>83.05215494123945</v>
+        <v>212.866233867104</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N37" t="n">
         <v>402.0534574160406</v>
@@ -10761,10 +10761,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P37" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>128.975405263476</v>
+        <v>259.1903609496554</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>380.1908016072373</v>
+        <v>212.866233867104</v>
       </c>
       <c r="M40" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P40" t="n">
-        <v>134.8546484264742</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>235.4961126219666</v>
+        <v>128.9754052634764</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
-        <v>236.6518967997216</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
-        <v>315.9153581548562</v>
+        <v>212.8662338671037</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>128.975405263476</v>
+        <v>128.9754052634764</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11457,25 +11457,25 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>214.7892409909184</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N46" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>152.9025226039384</v>
+        <v>134.1574291719313</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23266,10 +23266,10 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>350.9756409455584</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>57.89215638146403</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>209.9888884907911</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.6118642180837</v>
+        <v>8.655995143823503</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
@@ -23418,7 +23418,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>129.2131950006959</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>134.4071151528002</v>
       </c>
       <c r="I13" t="n">
-        <v>71.87667124394481</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,19 +23466,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>152.8483877177524</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3338237039372</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>78.74757594254729</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23497,22 +23497,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>234.7154092867994</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>209.7974632032985</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>274.4717029063549</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>57.89215638146403</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>209.9888884907911</v>
       </c>
       <c r="U14" t="n">
-        <v>255.6118642180837</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>104.0365951486177</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>114.1229118957123</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>71.87667124394481</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>6.356991008623027</v>
+        <v>6.356991008623012</v>
       </c>
       <c r="S16" t="n">
-        <v>152.8483877177524</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3338237039372</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>419.0596946068497</v>
@@ -23746,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>398.3019706430941</v>
       </c>
       <c r="H17" t="n">
         <v>274.4717029063549</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>57.89215638146403</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>92.96232441682449</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>365.4643160539533</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>72.65133383821274</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>134.4071151528002</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>71.87667124394481</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>6.356991008623019</v>
+        <v>6.356991008623012</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,19 +23946,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>113.9473319397846</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23971,16 +23971,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>268.8753472801284</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>57.89215638146403</v>
+        <v>57.89215638146402</v>
       </c>
       <c r="T20" t="n">
-        <v>209.9888884907911</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>255.6118642180837</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>218.2536996304964</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>407.6027988439302</v>
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>37.2046026851167</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>6.356991008623012</v>
       </c>
       <c r="S22" t="n">
         <v>152.8483877177524</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>37.85487999254144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24208,22 +24208,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>398.3019706430941</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>274.4717029063549</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24262,19 +24262,19 @@
         <v>209.9888884907911</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.6118642180837</v>
       </c>
       <c r="V23" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>122.8271723416513</v>
+        <v>64.25410480284512</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -24375,13 +24375,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.7000943114157</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>42.59657014990607</v>
       </c>
       <c r="I25" t="n">
         <v>71.87667124394481</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>6.356991008623012</v>
+        <v>6.356991008623019</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>152.8483877177524</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>234.3349389827105</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>190.1446870415875</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>398.3019706430941</v>
+        <v>143.7306306249916</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>46.07062995776469</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.7000943114157</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>6.356991008623012</v>
+        <v>6.356991008623019</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,13 +24657,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3338237039372</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>72.19537368540878</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>394.8592232008107</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
         <v>419.0596946068497</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>274.4717029063549</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>57.89215638146402</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.9888884907911</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.6118642180837</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>217.0520599916233</v>
       </c>
       <c r="X29" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24840,22 +24840,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>74.97766485004686</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>71.87667124394481</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>6.356991008623019</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>152.8483877177524</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>80.42809091903527</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>264.1816256463162</v>
       </c>
       <c r="F32" t="n">
         <v>420.8729399924937</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>57.89215638146402</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>193.7798675627716</v>
+        <v>209.9888884907911</v>
       </c>
       <c r="U32" t="n">
-        <v>255.6118642180837</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>20.63062834449306</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>163.7000943114157</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>71.87667124394481</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>6.356991008623012</v>
+        <v>6.356991008623019</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>87.58785586044286</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -25153,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>67.76971624456047</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>398.3019706430941</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>274.4717029063549</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>57.89215638146403</v>
       </c>
       <c r="T35" t="n">
-        <v>209.9888884907911</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>255.6118642180837</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>353.914520725013</v>
@@ -25219,7 +25219,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>336.0683318624287</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>139.8823174856902</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>134.4071151528002</v>
       </c>
       <c r="I37" t="n">
         <v>71.87667124394481</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>6.356991008623012</v>
+        <v>6.356991008623019</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>152.8483877177524</v>
       </c>
       <c r="T37" t="n">
-        <v>170.7710621474413</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25396,10 +25396,10 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>334.3965488536644</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>57.89215638146402</v>
+        <v>49.88812149888858</v>
       </c>
       <c r="T38" t="n">
         <v>209.9888884907911</v>
@@ -25450,16 +25450,16 @@
         <v>255.6118642180837</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>4.183421772338562</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>117.5472698055219</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.7000943114157</v>
       </c>
       <c r="H40" t="n">
         <v>134.4071151528002</v>
       </c>
       <c r="I40" t="n">
-        <v>71.87667124394481</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>6.356991008623012</v>
+        <v>6.356991008623019</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3338237039372</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25630,13 +25630,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>67.76971624455956</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>57.89215638146402</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.9888884907911</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.6118642180837</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
@@ -25693,10 +25693,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>47.23064565211791</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25791,16 +25791,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>59.5297783168453</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>110.5582237377199</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>134.4071151528002</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>6.356991008623027</v>
       </c>
       <c r="S43" t="n">
-        <v>152.8483877177524</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.0848299533737</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -25867,13 +25867,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>398.3019706430941</v>
       </c>
       <c r="H44" t="n">
-        <v>274.4717029063549</v>
+        <v>168.7968616994143</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25918,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.9888884907911</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>31.22696449322274</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>51.29017034863939</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>24.23209892624985</v>
       </c>
       <c r="H46" t="n">
         <v>134.4071151528002</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>6.356991008623027</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>152.8483877177524</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3338237039372</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>355960.300434053</v>
+        <v>355960.3004340531</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>355960.300434053</v>
+        <v>355960.3004340531</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>355960.3004340531</v>
+        <v>355960.3004340532</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>355960.3004340532</v>
+        <v>355960.3004340531</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>355960.3004340532</v>
+        <v>355960.3004340531</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>355960.3004340532</v>
+        <v>355960.3004340531</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>355960.3004340531</v>
+        <v>355960.3004340532</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>355960.3004340531</v>
+        <v>355960.300434053</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>355960.3004340532</v>
+        <v>355960.300434053</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>355960.3004340532</v>
+        <v>355960.3004340531</v>
       </c>
     </row>
   </sheetData>
@@ -26319,28 +26319,28 @@
         <v>444671.3004803269</v>
       </c>
       <c r="D2" t="n">
-        <v>444672.3489394089</v>
+        <v>444672.3489394088</v>
       </c>
       <c r="E2" t="n">
-        <v>265086.2995824507</v>
+        <v>265086.2995824505</v>
       </c>
       <c r="F2" t="n">
-        <v>265086.2995824507</v>
+        <v>265086.2995824506</v>
       </c>
       <c r="G2" t="n">
+        <v>265086.2995824505</v>
+      </c>
+      <c r="H2" t="n">
+        <v>265086.2995824505</v>
+      </c>
+      <c r="I2" t="n">
+        <v>265086.2995824505</v>
+      </c>
+      <c r="J2" t="n">
         <v>265086.2995824506</v>
       </c>
-      <c r="H2" t="n">
-        <v>265086.2995824507</v>
-      </c>
-      <c r="I2" t="n">
-        <v>265086.2995824506</v>
-      </c>
-      <c r="J2" t="n">
-        <v>265086.2995824508</v>
-      </c>
       <c r="K2" t="n">
-        <v>265086.2995824506</v>
+        <v>265086.2995824505</v>
       </c>
       <c r="L2" t="n">
         <v>265086.2995824505</v>
@@ -26374,7 +26374,7 @@
         <v>3620.625146095253</v>
       </c>
       <c r="E3" t="n">
-        <v>524578.411962389</v>
+        <v>524578.4119623894</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26426,19 +26426,19 @@
         <v>311716.9987585373</v>
       </c>
       <c r="E4" t="n">
+        <v>22908.65050423132</v>
+      </c>
+      <c r="F4" t="n">
+        <v>22908.65050423135</v>
+      </c>
+      <c r="G4" t="n">
         <v>22908.65050423134</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
+        <v>22908.65050423133</v>
+      </c>
+      <c r="I4" t="n">
         <v>22908.65050423134</v>
-      </c>
-      <c r="G4" t="n">
-        <v>22908.65050423133</v>
-      </c>
-      <c r="H4" t="n">
-        <v>22908.65050423134</v>
-      </c>
-      <c r="I4" t="n">
-        <v>22908.65050423133</v>
       </c>
       <c r="J4" t="n">
         <v>22908.65050423134</v>
@@ -26450,7 +26450,7 @@
         <v>22908.65050423134</v>
       </c>
       <c r="M4" t="n">
-        <v>22908.65050423133</v>
+        <v>22908.65050423134</v>
       </c>
       <c r="N4" t="n">
         <v>22908.65050423134</v>
@@ -26459,7 +26459,7 @@
         <v>22908.65050423134</v>
       </c>
       <c r="P4" t="n">
-        <v>22908.65050423135</v>
+        <v>22908.65050423134</v>
       </c>
     </row>
     <row r="5">
@@ -26478,13 +26478,13 @@
         <v>34551.47122049312</v>
       </c>
       <c r="E5" t="n">
-        <v>43431.53559403695</v>
+        <v>43431.53559403698</v>
       </c>
       <c r="F5" t="n">
-        <v>43431.53559403695</v>
+        <v>43431.53559403698</v>
       </c>
       <c r="G5" t="n">
-        <v>43431.53559403696</v>
+        <v>43431.53559403698</v>
       </c>
       <c r="H5" t="n">
         <v>43431.53559403696</v>
@@ -26493,13 +26493,13 @@
         <v>43431.53559403696</v>
       </c>
       <c r="J5" t="n">
-        <v>43431.53559403698</v>
+        <v>43431.53559403696</v>
       </c>
       <c r="K5" t="n">
-        <v>43431.53559403698</v>
+        <v>43431.53559403696</v>
       </c>
       <c r="L5" t="n">
-        <v>43431.53559403698</v>
+        <v>43431.53559403696</v>
       </c>
       <c r="M5" t="n">
         <v>43431.53559403696</v>
@@ -26508,10 +26508,10 @@
         <v>43431.53559403696</v>
       </c>
       <c r="O5" t="n">
-        <v>43431.53559403698</v>
+        <v>43431.53559403696</v>
       </c>
       <c r="P5" t="n">
-        <v>43431.53559403698</v>
+        <v>43431.53559403696</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>86331.60909808433</v>
+        <v>86309.89545658803</v>
       </c>
       <c r="C6" t="n">
-        <v>62503.65335929353</v>
+        <v>62481.97023920221</v>
       </c>
       <c r="D6" t="n">
-        <v>94783.25381428321</v>
+        <v>94761.57407631785</v>
       </c>
       <c r="E6" t="n">
-        <v>-325832.2984782066</v>
+        <v>-326433.2880528079</v>
       </c>
       <c r="F6" t="n">
-        <v>198746.1134841824</v>
+        <v>198145.1239095816</v>
       </c>
       <c r="G6" t="n">
-        <v>198746.1134841823</v>
+        <v>198145.1239095816</v>
       </c>
       <c r="H6" t="n">
-        <v>198746.1134841824</v>
+        <v>198145.1239095816</v>
       </c>
       <c r="I6" t="n">
-        <v>198746.1134841823</v>
+        <v>198145.1239095816</v>
       </c>
       <c r="J6" t="n">
-        <v>198746.1134841825</v>
+        <v>198145.1239095816</v>
       </c>
       <c r="K6" t="n">
-        <v>198746.1134841823</v>
+        <v>198145.1239095816</v>
       </c>
       <c r="L6" t="n">
-        <v>198746.1134841822</v>
+        <v>198145.1239095816</v>
       </c>
       <c r="M6" t="n">
-        <v>65044.09857748229</v>
+        <v>64443.10900288161</v>
       </c>
       <c r="N6" t="n">
-        <v>198746.1134841822</v>
+        <v>198145.1239095816</v>
       </c>
       <c r="O6" t="n">
-        <v>198746.1134841823</v>
+        <v>198145.1239095816</v>
       </c>
       <c r="P6" t="n">
-        <v>198746.1134841823</v>
+        <v>198145.1239095817</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>42.37941378408804</v>
       </c>
       <c r="E3" t="n">
+        <v>495.9331594087366</v>
+      </c>
+      <c r="F3" t="n">
+        <v>495.9331594087365</v>
+      </c>
+      <c r="G3" t="n">
+        <v>495.9331594087365</v>
+      </c>
+      <c r="H3" t="n">
+        <v>495.9331594087365</v>
+      </c>
+      <c r="I3" t="n">
         <v>495.9331594087363</v>
       </c>
-      <c r="F3" t="n">
+      <c r="J3" t="n">
         <v>495.9331594087363</v>
       </c>
-      <c r="G3" t="n">
+      <c r="K3" t="n">
         <v>495.9331594087363</v>
       </c>
-      <c r="H3" t="n">
+      <c r="L3" t="n">
         <v>495.9331594087363</v>
       </c>
-      <c r="I3" t="n">
-        <v>495.9331594087365</v>
-      </c>
-      <c r="J3" t="n">
-        <v>495.9331594087365</v>
-      </c>
-      <c r="K3" t="n">
-        <v>495.9331594087365</v>
-      </c>
-      <c r="L3" t="n">
-        <v>495.9331594087365</v>
-      </c>
       <c r="M3" t="n">
-        <v>495.9331594087365</v>
+        <v>495.9331594087363</v>
       </c>
       <c r="N3" t="n">
-        <v>495.9331594087365</v>
+        <v>495.9331594087363</v>
       </c>
       <c r="O3" t="n">
-        <v>495.9331594087365</v>
+        <v>495.9331594087363</v>
       </c>
       <c r="P3" t="n">
-        <v>495.9331594087365</v>
+        <v>495.9331594087363</v>
       </c>
     </row>
     <row r="4">
@@ -26798,13 +26798,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>536.5163276139227</v>
+        <v>536.516327613923</v>
       </c>
       <c r="F4" t="n">
-        <v>536.5163276139227</v>
+        <v>536.5163276139231</v>
       </c>
       <c r="G4" t="n">
-        <v>536.5163276139227</v>
+        <v>536.5163276139231</v>
       </c>
       <c r="H4" t="n">
         <v>536.5163276139228</v>
@@ -26813,13 +26813,13 @@
         <v>536.5163276139228</v>
       </c>
       <c r="J4" t="n">
-        <v>536.5163276139231</v>
+        <v>536.5163276139228</v>
       </c>
       <c r="K4" t="n">
-        <v>536.5163276139231</v>
+        <v>536.5163276139228</v>
       </c>
       <c r="L4" t="n">
-        <v>536.5163276139231</v>
+        <v>536.5163276139228</v>
       </c>
       <c r="M4" t="n">
         <v>536.5163276139228</v>
@@ -26828,10 +26828,10 @@
         <v>536.5163276139228</v>
       </c>
       <c r="O4" t="n">
-        <v>536.5163276139231</v>
+        <v>536.5163276139228</v>
       </c>
       <c r="P4" t="n">
-        <v>536.5163276139231</v>
+        <v>536.5163276139228</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>4.22765758861398</v>
       </c>
       <c r="E3" t="n">
-        <v>453.5537456246482</v>
+        <v>453.5537456246485</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>536.5163276139227</v>
+        <v>536.516327613923</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>536.5163276139227</v>
+        <v>536.5163276139228</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>536.5163276139227</v>
+        <v>536.516327613923</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.993701143351702</v>
+        <v>1.993701143351703</v>
       </c>
       <c r="H11" t="n">
-        <v>20.41799183435063</v>
+        <v>20.41799183435064</v>
       </c>
       <c r="I11" t="n">
-        <v>76.86216332906658</v>
+        <v>76.86216332906662</v>
       </c>
       <c r="J11" t="n">
-        <v>169.2128924155467</v>
+        <v>169.2128924155468</v>
       </c>
       <c r="K11" t="n">
-        <v>253.6062618136243</v>
+        <v>253.6062618136244</v>
       </c>
       <c r="L11" t="n">
-        <v>314.620993179474</v>
+        <v>314.6209931794742</v>
       </c>
       <c r="M11" t="n">
-        <v>350.0764758875548</v>
+        <v>350.076475887555</v>
       </c>
       <c r="N11" t="n">
-        <v>355.7410792611029</v>
+        <v>355.7410792611031</v>
       </c>
       <c r="O11" t="n">
-        <v>335.9162135168993</v>
+        <v>335.9162135168996</v>
       </c>
       <c r="P11" t="n">
-        <v>286.6967165404042</v>
+        <v>286.6967165404043</v>
       </c>
       <c r="Q11" t="n">
-        <v>215.2972943441213</v>
+        <v>215.2972943441214</v>
       </c>
       <c r="R11" t="n">
         <v>125.2368294460665</v>
       </c>
       <c r="S11" t="n">
-        <v>45.43146480412696</v>
+        <v>45.43146480412698</v>
       </c>
       <c r="T11" t="n">
-        <v>8.72742675502208</v>
+        <v>8.727426755022085</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1594960914681361</v>
+        <v>0.1594960914681362</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.066724154199923</v>
+        <v>1.066724154199924</v>
       </c>
       <c r="H12" t="n">
         <v>10.30230959450979</v>
       </c>
       <c r="I12" t="n">
-        <v>36.72712548451491</v>
+        <v>36.72712548451493</v>
       </c>
       <c r="J12" t="n">
         <v>100.7820394983358</v>
       </c>
       <c r="K12" t="n">
-        <v>172.2525578297306</v>
+        <v>172.2525578297307</v>
       </c>
       <c r="L12" t="n">
-        <v>231.6148212880141</v>
+        <v>231.6148212880142</v>
       </c>
       <c r="M12" t="n">
-        <v>270.2835718777612</v>
+        <v>270.2835718777614</v>
       </c>
       <c r="N12" t="n">
-        <v>277.4371737714968</v>
+        <v>277.4371737714969</v>
       </c>
       <c r="O12" t="n">
-        <v>253.8008122494879</v>
+        <v>253.800812249488</v>
       </c>
       <c r="P12" t="n">
-        <v>203.6975273050714</v>
+        <v>203.6975273050715</v>
       </c>
       <c r="Q12" t="n">
-        <v>136.1664025606779</v>
+        <v>136.166402560678</v>
       </c>
       <c r="R12" t="n">
-        <v>66.23046985462334</v>
+        <v>66.23046985462338</v>
       </c>
       <c r="S12" t="n">
-        <v>19.81393330279242</v>
+        <v>19.81393330279244</v>
       </c>
       <c r="T12" t="n">
-        <v>4.299646919779514</v>
+        <v>4.299646919779517</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07017922067104762</v>
+        <v>0.07017922067104766</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8943056972944424</v>
+        <v>0.8943056972944429</v>
       </c>
       <c r="H13" t="n">
-        <v>7.951190654126957</v>
+        <v>7.951190654126962</v>
       </c>
       <c r="I13" t="n">
-        <v>26.89421133318197</v>
+        <v>26.89421133318198</v>
       </c>
       <c r="J13" t="n">
-        <v>63.22741279871708</v>
+        <v>63.22741279871711</v>
       </c>
       <c r="K13" t="n">
-        <v>103.902061922027</v>
+        <v>103.9020619220271</v>
       </c>
       <c r="L13" t="n">
         <v>132.9588670323029</v>
       </c>
       <c r="M13" t="n">
-        <v>140.1864830768006</v>
+        <v>140.1864830768007</v>
       </c>
       <c r="N13" t="n">
-        <v>136.8531618414305</v>
+        <v>136.8531618414306</v>
       </c>
       <c r="O13" t="n">
-        <v>126.4060452866727</v>
+        <v>126.4060452866728</v>
       </c>
       <c r="P13" t="n">
         <v>108.162209061866</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.88590707071917</v>
+        <v>74.88590707071921</v>
       </c>
       <c r="R13" t="n">
-        <v>40.21123617107556</v>
+        <v>40.21123617107558</v>
       </c>
       <c r="S13" t="n">
-        <v>15.58530928830405</v>
+        <v>15.58530928830406</v>
       </c>
       <c r="T13" t="n">
-        <v>3.821124342985344</v>
+        <v>3.821124342985346</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04878031076151509</v>
+        <v>0.04878031076151512</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.993701143351702</v>
+        <v>1.993701143351703</v>
       </c>
       <c r="H14" t="n">
         <v>20.41799183435063</v>
       </c>
       <c r="I14" t="n">
-        <v>76.86216332906658</v>
+        <v>76.8621633290666</v>
       </c>
       <c r="J14" t="n">
         <v>169.2128924155467</v>
       </c>
       <c r="K14" t="n">
-        <v>253.6062618136243</v>
+        <v>253.6062618136244</v>
       </c>
       <c r="L14" t="n">
-        <v>314.620993179474</v>
+        <v>314.6209931794741</v>
       </c>
       <c r="M14" t="n">
-        <v>350.0764758875548</v>
+        <v>350.0764758875549</v>
       </c>
       <c r="N14" t="n">
-        <v>355.7410792611029</v>
+        <v>355.741079261103</v>
       </c>
       <c r="O14" t="n">
-        <v>335.9162135168993</v>
+        <v>335.9162135168995</v>
       </c>
       <c r="P14" t="n">
-        <v>286.6967165404042</v>
+        <v>286.6967165404043</v>
       </c>
       <c r="Q14" t="n">
-        <v>215.2972943441213</v>
+        <v>215.2972943441214</v>
       </c>
       <c r="R14" t="n">
         <v>125.2368294460665</v>
       </c>
       <c r="S14" t="n">
-        <v>45.43146480412696</v>
+        <v>45.43146480412697</v>
       </c>
       <c r="T14" t="n">
-        <v>8.72742675502208</v>
+        <v>8.727426755022083</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1594960914681361</v>
+        <v>0.1594960914681362</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.066724154199923</v>
+        <v>1.066724154199924</v>
       </c>
       <c r="H15" t="n">
         <v>10.30230959450979</v>
       </c>
       <c r="I15" t="n">
-        <v>36.72712548451491</v>
+        <v>36.72712548451492</v>
       </c>
       <c r="J15" t="n">
         <v>100.7820394983358</v>
       </c>
       <c r="K15" t="n">
-        <v>172.2525578297306</v>
+        <v>172.2525578297307</v>
       </c>
       <c r="L15" t="n">
-        <v>231.6148212880141</v>
+        <v>231.6148212880142</v>
       </c>
       <c r="M15" t="n">
-        <v>270.2835718777612</v>
+        <v>270.2835718777613</v>
       </c>
       <c r="N15" t="n">
         <v>277.4371737714968</v>
       </c>
       <c r="O15" t="n">
-        <v>253.8008122494879</v>
+        <v>253.800812249488</v>
       </c>
       <c r="P15" t="n">
         <v>203.6975273050714</v>
       </c>
       <c r="Q15" t="n">
-        <v>136.1664025606779</v>
+        <v>136.166402560678</v>
       </c>
       <c r="R15" t="n">
-        <v>66.23046985462334</v>
+        <v>66.23046985462337</v>
       </c>
       <c r="S15" t="n">
-        <v>19.81393330279242</v>
+        <v>19.81393330279243</v>
       </c>
       <c r="T15" t="n">
-        <v>4.299646919779514</v>
+        <v>4.299646919779516</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07017922067104762</v>
+        <v>0.07017922067104765</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8943056972944424</v>
+        <v>0.8943056972944426</v>
       </c>
       <c r="H16" t="n">
-        <v>7.951190654126957</v>
+        <v>7.95119065412696</v>
       </c>
       <c r="I16" t="n">
         <v>26.89421133318197</v>
       </c>
       <c r="J16" t="n">
-        <v>63.22741279871708</v>
+        <v>63.2274127987171</v>
       </c>
       <c r="K16" t="n">
         <v>103.902061922027</v>
@@ -32165,10 +32165,10 @@
         <v>132.9588670323029</v>
       </c>
       <c r="M16" t="n">
-        <v>140.1864830768006</v>
+        <v>140.1864830768007</v>
       </c>
       <c r="N16" t="n">
-        <v>136.8531618414305</v>
+        <v>136.8531618414306</v>
       </c>
       <c r="O16" t="n">
         <v>126.4060452866727</v>
@@ -32177,19 +32177,19 @@
         <v>108.162209061866</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.88590707071917</v>
+        <v>74.8859070707192</v>
       </c>
       <c r="R16" t="n">
-        <v>40.21123617107556</v>
+        <v>40.21123617107557</v>
       </c>
       <c r="S16" t="n">
         <v>15.58530928830405</v>
       </c>
       <c r="T16" t="n">
-        <v>3.821124342985344</v>
+        <v>3.821124342985345</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04878031076151509</v>
+        <v>0.04878031076151512</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,19 +32226,19 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.993701143351702</v>
+        <v>1.993701143351703</v>
       </c>
       <c r="H17" t="n">
         <v>20.41799183435063</v>
       </c>
       <c r="I17" t="n">
-        <v>76.86216332906658</v>
+        <v>76.8621633290666</v>
       </c>
       <c r="J17" t="n">
         <v>169.2128924155467</v>
       </c>
       <c r="K17" t="n">
-        <v>253.6062618136243</v>
+        <v>253.6062618136244</v>
       </c>
       <c r="L17" t="n">
         <v>314.6209931794741</v>
@@ -32247,28 +32247,28 @@
         <v>350.0764758875549</v>
       </c>
       <c r="N17" t="n">
-        <v>355.7410792611029</v>
+        <v>355.741079261103</v>
       </c>
       <c r="O17" t="n">
-        <v>335.9162135168994</v>
+        <v>335.9162135168995</v>
       </c>
       <c r="P17" t="n">
-        <v>286.6967165404042</v>
+        <v>286.6967165404043</v>
       </c>
       <c r="Q17" t="n">
-        <v>215.2972943441213</v>
+        <v>215.2972943441214</v>
       </c>
       <c r="R17" t="n">
         <v>125.2368294460665</v>
       </c>
       <c r="S17" t="n">
-        <v>45.43146480412696</v>
+        <v>45.43146480412697</v>
       </c>
       <c r="T17" t="n">
-        <v>8.727426755022082</v>
+        <v>8.727426755022083</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1594960914681361</v>
+        <v>0.1594960914681362</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,16 +32311,16 @@
         <v>10.30230959450979</v>
       </c>
       <c r="I18" t="n">
-        <v>36.72712548451491</v>
+        <v>36.72712548451492</v>
       </c>
       <c r="J18" t="n">
         <v>100.7820394983358</v>
       </c>
       <c r="K18" t="n">
-        <v>172.2525578297306</v>
+        <v>172.2525578297307</v>
       </c>
       <c r="L18" t="n">
-        <v>231.6148212880141</v>
+        <v>231.6148212880142</v>
       </c>
       <c r="M18" t="n">
         <v>270.2835718777613</v>
@@ -32329,7 +32329,7 @@
         <v>277.4371737714968</v>
       </c>
       <c r="O18" t="n">
-        <v>253.8008122494879</v>
+        <v>253.800812249488</v>
       </c>
       <c r="P18" t="n">
         <v>203.6975273050714</v>
@@ -32338,16 +32338,16 @@
         <v>136.166402560678</v>
       </c>
       <c r="R18" t="n">
-        <v>66.23046985462335</v>
+        <v>66.23046985462337</v>
       </c>
       <c r="S18" t="n">
-        <v>19.81393330279242</v>
+        <v>19.81393330279243</v>
       </c>
       <c r="T18" t="n">
-        <v>4.299646919779515</v>
+        <v>4.299646919779516</v>
       </c>
       <c r="U18" t="n">
-        <v>0.07017922067104762</v>
+        <v>0.07017922067104765</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8943056972944424</v>
+        <v>0.8943056972944426</v>
       </c>
       <c r="H19" t="n">
-        <v>7.951190654126958</v>
+        <v>7.95119065412696</v>
       </c>
       <c r="I19" t="n">
         <v>26.89421133318197</v>
       </c>
       <c r="J19" t="n">
-        <v>63.22741279871708</v>
+        <v>63.2274127987171</v>
       </c>
       <c r="K19" t="n">
         <v>103.902061922027</v>
@@ -32402,7 +32402,7 @@
         <v>132.9588670323029</v>
       </c>
       <c r="M19" t="n">
-        <v>140.1864830768006</v>
+        <v>140.1864830768007</v>
       </c>
       <c r="N19" t="n">
         <v>136.8531618414306</v>
@@ -32414,19 +32414,19 @@
         <v>108.162209061866</v>
       </c>
       <c r="Q19" t="n">
-        <v>74.88590707071918</v>
+        <v>74.8859070707192</v>
       </c>
       <c r="R19" t="n">
-        <v>40.21123617107556</v>
+        <v>40.21123617107557</v>
       </c>
       <c r="S19" t="n">
         <v>15.58530928830405</v>
       </c>
       <c r="T19" t="n">
-        <v>3.821124342985344</v>
+        <v>3.821124342985345</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0487803107615151</v>
+        <v>0.04878031076151512</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,19 +32463,19 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.993701143351702</v>
+        <v>1.993701143351703</v>
       </c>
       <c r="H20" t="n">
         <v>20.41799183435063</v>
       </c>
       <c r="I20" t="n">
-        <v>76.86216332906658</v>
+        <v>76.8621633290666</v>
       </c>
       <c r="J20" t="n">
         <v>169.2128924155467</v>
       </c>
       <c r="K20" t="n">
-        <v>253.6062618136243</v>
+        <v>253.6062618136244</v>
       </c>
       <c r="L20" t="n">
         <v>314.6209931794741</v>
@@ -32484,28 +32484,28 @@
         <v>350.0764758875549</v>
       </c>
       <c r="N20" t="n">
-        <v>355.7410792611029</v>
+        <v>355.741079261103</v>
       </c>
       <c r="O20" t="n">
-        <v>335.9162135168994</v>
+        <v>335.9162135168995</v>
       </c>
       <c r="P20" t="n">
-        <v>286.6967165404042</v>
+        <v>286.6967165404043</v>
       </c>
       <c r="Q20" t="n">
-        <v>215.2972943441213</v>
+        <v>215.2972943441214</v>
       </c>
       <c r="R20" t="n">
         <v>125.2368294460665</v>
       </c>
       <c r="S20" t="n">
-        <v>45.43146480412696</v>
+        <v>45.43146480412697</v>
       </c>
       <c r="T20" t="n">
-        <v>8.727426755022082</v>
+        <v>8.727426755022083</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1594960914681361</v>
+        <v>0.1594960914681362</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,16 +32548,16 @@
         <v>10.30230959450979</v>
       </c>
       <c r="I21" t="n">
-        <v>36.72712548451491</v>
+        <v>36.72712548451492</v>
       </c>
       <c r="J21" t="n">
         <v>100.7820394983358</v>
       </c>
       <c r="K21" t="n">
-        <v>172.2525578297306</v>
+        <v>172.2525578297307</v>
       </c>
       <c r="L21" t="n">
-        <v>231.6148212880141</v>
+        <v>231.6148212880142</v>
       </c>
       <c r="M21" t="n">
         <v>270.2835718777613</v>
@@ -32566,7 +32566,7 @@
         <v>277.4371737714968</v>
       </c>
       <c r="O21" t="n">
-        <v>253.8008122494879</v>
+        <v>253.800812249488</v>
       </c>
       <c r="P21" t="n">
         <v>203.6975273050714</v>
@@ -32575,16 +32575,16 @@
         <v>136.166402560678</v>
       </c>
       <c r="R21" t="n">
-        <v>66.23046985462335</v>
+        <v>66.23046985462337</v>
       </c>
       <c r="S21" t="n">
-        <v>19.81393330279242</v>
+        <v>19.81393330279243</v>
       </c>
       <c r="T21" t="n">
-        <v>4.299646919779515</v>
+        <v>4.299646919779516</v>
       </c>
       <c r="U21" t="n">
-        <v>0.07017922067104762</v>
+        <v>0.07017922067104765</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8943056972944424</v>
+        <v>0.8943056972944426</v>
       </c>
       <c r="H22" t="n">
-        <v>7.951190654126958</v>
+        <v>7.95119065412696</v>
       </c>
       <c r="I22" t="n">
         <v>26.89421133318197</v>
       </c>
       <c r="J22" t="n">
-        <v>63.22741279871708</v>
+        <v>63.2274127987171</v>
       </c>
       <c r="K22" t="n">
         <v>103.902061922027</v>
@@ -32639,7 +32639,7 @@
         <v>132.9588670323029</v>
       </c>
       <c r="M22" t="n">
-        <v>140.1864830768006</v>
+        <v>140.1864830768007</v>
       </c>
       <c r="N22" t="n">
         <v>136.8531618414306</v>
@@ -32651,19 +32651,19 @@
         <v>108.162209061866</v>
       </c>
       <c r="Q22" t="n">
-        <v>74.88590707071918</v>
+        <v>74.8859070707192</v>
       </c>
       <c r="R22" t="n">
-        <v>40.21123617107556</v>
+        <v>40.21123617107557</v>
       </c>
       <c r="S22" t="n">
         <v>15.58530928830405</v>
       </c>
       <c r="T22" t="n">
-        <v>3.821124342985344</v>
+        <v>3.821124342985345</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0487803107615151</v>
+        <v>0.04878031076151512</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,19 +32700,19 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.993701143351703</v>
+        <v>1.993701143351702</v>
       </c>
       <c r="H23" t="n">
         <v>20.41799183435063</v>
       </c>
       <c r="I23" t="n">
-        <v>76.8621633290666</v>
+        <v>76.86216332906658</v>
       </c>
       <c r="J23" t="n">
         <v>169.2128924155467</v>
       </c>
       <c r="K23" t="n">
-        <v>253.6062618136244</v>
+        <v>253.6062618136243</v>
       </c>
       <c r="L23" t="n">
         <v>314.6209931794741</v>
@@ -32721,28 +32721,28 @@
         <v>350.0764758875549</v>
       </c>
       <c r="N23" t="n">
-        <v>355.741079261103</v>
+        <v>355.7410792611029</v>
       </c>
       <c r="O23" t="n">
-        <v>335.9162135168995</v>
+        <v>335.9162135168994</v>
       </c>
       <c r="P23" t="n">
-        <v>286.6967165404043</v>
+        <v>286.6967165404042</v>
       </c>
       <c r="Q23" t="n">
-        <v>215.2972943441214</v>
+        <v>215.2972943441213</v>
       </c>
       <c r="R23" t="n">
         <v>125.2368294460665</v>
       </c>
       <c r="S23" t="n">
-        <v>45.43146480412697</v>
+        <v>45.43146480412696</v>
       </c>
       <c r="T23" t="n">
-        <v>8.727426755022083</v>
+        <v>8.727426755022082</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1594960914681362</v>
+        <v>0.1594960914681361</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,16 +32785,16 @@
         <v>10.30230959450979</v>
       </c>
       <c r="I24" t="n">
-        <v>36.72712548451492</v>
+        <v>36.72712548451491</v>
       </c>
       <c r="J24" t="n">
         <v>100.7820394983358</v>
       </c>
       <c r="K24" t="n">
-        <v>172.2525578297307</v>
+        <v>172.2525578297306</v>
       </c>
       <c r="L24" t="n">
-        <v>231.6148212880142</v>
+        <v>231.6148212880141</v>
       </c>
       <c r="M24" t="n">
         <v>270.2835718777613</v>
@@ -32803,7 +32803,7 @@
         <v>277.4371737714968</v>
       </c>
       <c r="O24" t="n">
-        <v>253.800812249488</v>
+        <v>253.8008122494879</v>
       </c>
       <c r="P24" t="n">
         <v>203.6975273050714</v>
@@ -32812,16 +32812,16 @@
         <v>136.166402560678</v>
       </c>
       <c r="R24" t="n">
-        <v>66.23046985462337</v>
+        <v>66.23046985462335</v>
       </c>
       <c r="S24" t="n">
-        <v>19.81393330279243</v>
+        <v>19.81393330279242</v>
       </c>
       <c r="T24" t="n">
-        <v>4.299646919779516</v>
+        <v>4.299646919779515</v>
       </c>
       <c r="U24" t="n">
-        <v>0.07017922067104765</v>
+        <v>0.07017922067104762</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8943056972944426</v>
+        <v>0.8943056972944424</v>
       </c>
       <c r="H25" t="n">
-        <v>7.95119065412696</v>
+        <v>7.951190654126958</v>
       </c>
       <c r="I25" t="n">
         <v>26.89421133318197</v>
       </c>
       <c r="J25" t="n">
-        <v>63.2274127987171</v>
+        <v>63.22741279871708</v>
       </c>
       <c r="K25" t="n">
         <v>103.902061922027</v>
@@ -32876,7 +32876,7 @@
         <v>132.9588670323029</v>
       </c>
       <c r="M25" t="n">
-        <v>140.1864830768007</v>
+        <v>140.1864830768006</v>
       </c>
       <c r="N25" t="n">
         <v>136.8531618414306</v>
@@ -32888,19 +32888,19 @@
         <v>108.162209061866</v>
       </c>
       <c r="Q25" t="n">
-        <v>74.8859070707192</v>
+        <v>74.88590707071918</v>
       </c>
       <c r="R25" t="n">
-        <v>40.21123617107557</v>
+        <v>40.21123617107556</v>
       </c>
       <c r="S25" t="n">
         <v>15.58530928830405</v>
       </c>
       <c r="T25" t="n">
-        <v>3.821124342985345</v>
+        <v>3.821124342985344</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04878031076151512</v>
+        <v>0.0487803107615151</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,19 +32937,19 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.993701143351703</v>
+        <v>1.993701143351702</v>
       </c>
       <c r="H26" t="n">
         <v>20.41799183435063</v>
       </c>
       <c r="I26" t="n">
-        <v>76.8621633290666</v>
+        <v>76.86216332906658</v>
       </c>
       <c r="J26" t="n">
         <v>169.2128924155467</v>
       </c>
       <c r="K26" t="n">
-        <v>253.6062618136244</v>
+        <v>253.6062618136243</v>
       </c>
       <c r="L26" t="n">
         <v>314.6209931794741</v>
@@ -32958,28 +32958,28 @@
         <v>350.0764758875549</v>
       </c>
       <c r="N26" t="n">
-        <v>355.741079261103</v>
+        <v>355.7410792611029</v>
       </c>
       <c r="O26" t="n">
-        <v>335.9162135168995</v>
+        <v>335.9162135168994</v>
       </c>
       <c r="P26" t="n">
-        <v>286.6967165404043</v>
+        <v>286.6967165404042</v>
       </c>
       <c r="Q26" t="n">
-        <v>215.2972943441214</v>
+        <v>215.2972943441213</v>
       </c>
       <c r="R26" t="n">
         <v>125.2368294460665</v>
       </c>
       <c r="S26" t="n">
-        <v>45.43146480412697</v>
+        <v>45.43146480412696</v>
       </c>
       <c r="T26" t="n">
-        <v>8.727426755022083</v>
+        <v>8.727426755022082</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1594960914681362</v>
+        <v>0.1594960914681361</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,16 +33022,16 @@
         <v>10.30230959450979</v>
       </c>
       <c r="I27" t="n">
-        <v>36.72712548451492</v>
+        <v>36.72712548451491</v>
       </c>
       <c r="J27" t="n">
         <v>100.7820394983358</v>
       </c>
       <c r="K27" t="n">
-        <v>172.2525578297307</v>
+        <v>172.2525578297306</v>
       </c>
       <c r="L27" t="n">
-        <v>231.6148212880142</v>
+        <v>231.6148212880141</v>
       </c>
       <c r="M27" t="n">
         <v>270.2835718777613</v>
@@ -33040,7 +33040,7 @@
         <v>277.4371737714968</v>
       </c>
       <c r="O27" t="n">
-        <v>253.800812249488</v>
+        <v>253.8008122494879</v>
       </c>
       <c r="P27" t="n">
         <v>203.6975273050714</v>
@@ -33049,16 +33049,16 @@
         <v>136.166402560678</v>
       </c>
       <c r="R27" t="n">
-        <v>66.23046985462337</v>
+        <v>66.23046985462335</v>
       </c>
       <c r="S27" t="n">
-        <v>19.81393330279243</v>
+        <v>19.81393330279242</v>
       </c>
       <c r="T27" t="n">
-        <v>4.299646919779516</v>
+        <v>4.299646919779515</v>
       </c>
       <c r="U27" t="n">
-        <v>0.07017922067104765</v>
+        <v>0.07017922067104762</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8943056972944426</v>
+        <v>0.8943056972944424</v>
       </c>
       <c r="H28" t="n">
-        <v>7.95119065412696</v>
+        <v>7.951190654126958</v>
       </c>
       <c r="I28" t="n">
         <v>26.89421133318197</v>
       </c>
       <c r="J28" t="n">
-        <v>63.2274127987171</v>
+        <v>63.22741279871708</v>
       </c>
       <c r="K28" t="n">
         <v>103.902061922027</v>
@@ -33113,7 +33113,7 @@
         <v>132.9588670323029</v>
       </c>
       <c r="M28" t="n">
-        <v>140.1864830768007</v>
+        <v>140.1864830768006</v>
       </c>
       <c r="N28" t="n">
         <v>136.8531618414306</v>
@@ -33125,19 +33125,19 @@
         <v>108.162209061866</v>
       </c>
       <c r="Q28" t="n">
-        <v>74.8859070707192</v>
+        <v>74.88590707071918</v>
       </c>
       <c r="R28" t="n">
-        <v>40.21123617107557</v>
+        <v>40.21123617107556</v>
       </c>
       <c r="S28" t="n">
         <v>15.58530928830405</v>
       </c>
       <c r="T28" t="n">
-        <v>3.821124342985345</v>
+        <v>3.821124342985344</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04878031076151512</v>
+        <v>0.0487803107615151</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,19 +33174,19 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.993701143351703</v>
+        <v>1.993701143351702</v>
       </c>
       <c r="H29" t="n">
         <v>20.41799183435063</v>
       </c>
       <c r="I29" t="n">
-        <v>76.8621633290666</v>
+        <v>76.86216332906658</v>
       </c>
       <c r="J29" t="n">
         <v>169.2128924155467</v>
       </c>
       <c r="K29" t="n">
-        <v>253.6062618136244</v>
+        <v>253.6062618136243</v>
       </c>
       <c r="L29" t="n">
         <v>314.6209931794741</v>
@@ -33195,28 +33195,28 @@
         <v>350.0764758875549</v>
       </c>
       <c r="N29" t="n">
-        <v>355.741079261103</v>
+        <v>355.7410792611029</v>
       </c>
       <c r="O29" t="n">
-        <v>335.9162135168995</v>
+        <v>335.9162135168994</v>
       </c>
       <c r="P29" t="n">
-        <v>286.6967165404043</v>
+        <v>286.6967165404042</v>
       </c>
       <c r="Q29" t="n">
-        <v>215.2972943441214</v>
+        <v>215.2972943441213</v>
       </c>
       <c r="R29" t="n">
         <v>125.2368294460665</v>
       </c>
       <c r="S29" t="n">
-        <v>45.43146480412697</v>
+        <v>45.43146480412696</v>
       </c>
       <c r="T29" t="n">
-        <v>8.727426755022083</v>
+        <v>8.727426755022082</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1594960914681362</v>
+        <v>0.1594960914681361</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,16 +33259,16 @@
         <v>10.30230959450979</v>
       </c>
       <c r="I30" t="n">
-        <v>36.72712548451492</v>
+        <v>36.72712548451491</v>
       </c>
       <c r="J30" t="n">
         <v>100.7820394983358</v>
       </c>
       <c r="K30" t="n">
-        <v>172.2525578297307</v>
+        <v>172.2525578297306</v>
       </c>
       <c r="L30" t="n">
-        <v>231.6148212880142</v>
+        <v>231.6148212880141</v>
       </c>
       <c r="M30" t="n">
         <v>270.2835718777613</v>
@@ -33277,7 +33277,7 @@
         <v>277.4371737714968</v>
       </c>
       <c r="O30" t="n">
-        <v>253.800812249488</v>
+        <v>253.8008122494879</v>
       </c>
       <c r="P30" t="n">
         <v>203.6975273050714</v>
@@ -33286,16 +33286,16 @@
         <v>136.166402560678</v>
       </c>
       <c r="R30" t="n">
-        <v>66.23046985462337</v>
+        <v>66.23046985462335</v>
       </c>
       <c r="S30" t="n">
-        <v>19.81393330279243</v>
+        <v>19.81393330279242</v>
       </c>
       <c r="T30" t="n">
-        <v>4.299646919779516</v>
+        <v>4.299646919779515</v>
       </c>
       <c r="U30" t="n">
-        <v>0.07017922067104765</v>
+        <v>0.07017922067104762</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8943056972944426</v>
+        <v>0.8943056972944424</v>
       </c>
       <c r="H31" t="n">
-        <v>7.95119065412696</v>
+        <v>7.951190654126958</v>
       </c>
       <c r="I31" t="n">
         <v>26.89421133318197</v>
       </c>
       <c r="J31" t="n">
-        <v>63.2274127987171</v>
+        <v>63.22741279871708</v>
       </c>
       <c r="K31" t="n">
         <v>103.902061922027</v>
@@ -33350,7 +33350,7 @@
         <v>132.9588670323029</v>
       </c>
       <c r="M31" t="n">
-        <v>140.1864830768007</v>
+        <v>140.1864830768006</v>
       </c>
       <c r="N31" t="n">
         <v>136.8531618414306</v>
@@ -33362,19 +33362,19 @@
         <v>108.162209061866</v>
       </c>
       <c r="Q31" t="n">
-        <v>74.8859070707192</v>
+        <v>74.88590707071918</v>
       </c>
       <c r="R31" t="n">
-        <v>40.21123617107557</v>
+        <v>40.21123617107556</v>
       </c>
       <c r="S31" t="n">
         <v>15.58530928830405</v>
       </c>
       <c r="T31" t="n">
-        <v>3.821124342985345</v>
+        <v>3.821124342985344</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04878031076151512</v>
+        <v>0.0487803107615151</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,19 +33411,19 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.993701143351703</v>
+        <v>1.993701143351702</v>
       </c>
       <c r="H32" t="n">
         <v>20.41799183435063</v>
       </c>
       <c r="I32" t="n">
-        <v>76.8621633290666</v>
+        <v>76.86216332906658</v>
       </c>
       <c r="J32" t="n">
         <v>169.2128924155467</v>
       </c>
       <c r="K32" t="n">
-        <v>253.6062618136244</v>
+        <v>253.6062618136243</v>
       </c>
       <c r="L32" t="n">
         <v>314.6209931794741</v>
@@ -33432,28 +33432,28 @@
         <v>350.0764758875549</v>
       </c>
       <c r="N32" t="n">
-        <v>355.741079261103</v>
+        <v>355.7410792611029</v>
       </c>
       <c r="O32" t="n">
-        <v>335.9162135168995</v>
+        <v>335.9162135168994</v>
       </c>
       <c r="P32" t="n">
-        <v>286.6967165404043</v>
+        <v>286.6967165404042</v>
       </c>
       <c r="Q32" t="n">
-        <v>215.2972943441214</v>
+        <v>215.2972943441213</v>
       </c>
       <c r="R32" t="n">
         <v>125.2368294460665</v>
       </c>
       <c r="S32" t="n">
-        <v>45.43146480412697</v>
+        <v>45.43146480412696</v>
       </c>
       <c r="T32" t="n">
-        <v>8.727426755022083</v>
+        <v>8.727426755022082</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1594960914681362</v>
+        <v>0.1594960914681361</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,16 +33496,16 @@
         <v>10.30230959450979</v>
       </c>
       <c r="I33" t="n">
-        <v>36.72712548451492</v>
+        <v>36.72712548451491</v>
       </c>
       <c r="J33" t="n">
         <v>100.7820394983358</v>
       </c>
       <c r="K33" t="n">
-        <v>172.2525578297307</v>
+        <v>172.2525578297306</v>
       </c>
       <c r="L33" t="n">
-        <v>231.6148212880142</v>
+        <v>231.6148212880141</v>
       </c>
       <c r="M33" t="n">
         <v>270.2835718777613</v>
@@ -33514,7 +33514,7 @@
         <v>277.4371737714968</v>
       </c>
       <c r="O33" t="n">
-        <v>253.800812249488</v>
+        <v>253.8008122494879</v>
       </c>
       <c r="P33" t="n">
         <v>203.6975273050714</v>
@@ -33523,16 +33523,16 @@
         <v>136.166402560678</v>
       </c>
       <c r="R33" t="n">
-        <v>66.23046985462337</v>
+        <v>66.23046985462335</v>
       </c>
       <c r="S33" t="n">
-        <v>19.81393330279243</v>
+        <v>19.81393330279242</v>
       </c>
       <c r="T33" t="n">
-        <v>4.299646919779516</v>
+        <v>4.299646919779515</v>
       </c>
       <c r="U33" t="n">
-        <v>0.07017922067104765</v>
+        <v>0.07017922067104762</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8943056972944426</v>
+        <v>0.8943056972944424</v>
       </c>
       <c r="H34" t="n">
-        <v>7.95119065412696</v>
+        <v>7.951190654126958</v>
       </c>
       <c r="I34" t="n">
         <v>26.89421133318197</v>
       </c>
       <c r="J34" t="n">
-        <v>63.2274127987171</v>
+        <v>63.22741279871708</v>
       </c>
       <c r="K34" t="n">
         <v>103.902061922027</v>
@@ -33587,7 +33587,7 @@
         <v>132.9588670323029</v>
       </c>
       <c r="M34" t="n">
-        <v>140.1864830768007</v>
+        <v>140.1864830768006</v>
       </c>
       <c r="N34" t="n">
         <v>136.8531618414306</v>
@@ -33599,19 +33599,19 @@
         <v>108.162209061866</v>
       </c>
       <c r="Q34" t="n">
-        <v>74.8859070707192</v>
+        <v>74.88590707071918</v>
       </c>
       <c r="R34" t="n">
-        <v>40.21123617107557</v>
+        <v>40.21123617107556</v>
       </c>
       <c r="S34" t="n">
         <v>15.58530928830405</v>
       </c>
       <c r="T34" t="n">
-        <v>3.821124342985345</v>
+        <v>3.821124342985344</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04878031076151512</v>
+        <v>0.0487803107615151</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,19 +33648,19 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.993701143351703</v>
+        <v>1.993701143351702</v>
       </c>
       <c r="H35" t="n">
         <v>20.41799183435063</v>
       </c>
       <c r="I35" t="n">
-        <v>76.8621633290666</v>
+        <v>76.86216332906658</v>
       </c>
       <c r="J35" t="n">
         <v>169.2128924155467</v>
       </c>
       <c r="K35" t="n">
-        <v>253.6062618136244</v>
+        <v>253.6062618136243</v>
       </c>
       <c r="L35" t="n">
         <v>314.6209931794741</v>
@@ -33669,28 +33669,28 @@
         <v>350.0764758875549</v>
       </c>
       <c r="N35" t="n">
-        <v>355.741079261103</v>
+        <v>355.7410792611029</v>
       </c>
       <c r="O35" t="n">
-        <v>335.9162135168995</v>
+        <v>335.9162135168994</v>
       </c>
       <c r="P35" t="n">
-        <v>286.6967165404043</v>
+        <v>286.6967165404042</v>
       </c>
       <c r="Q35" t="n">
-        <v>215.2972943441214</v>
+        <v>215.2972943441213</v>
       </c>
       <c r="R35" t="n">
         <v>125.2368294460665</v>
       </c>
       <c r="S35" t="n">
-        <v>45.43146480412697</v>
+        <v>45.43146480412696</v>
       </c>
       <c r="T35" t="n">
-        <v>8.727426755022083</v>
+        <v>8.727426755022082</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1594960914681362</v>
+        <v>0.1594960914681361</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,16 +33733,16 @@
         <v>10.30230959450979</v>
       </c>
       <c r="I36" t="n">
-        <v>36.72712548451492</v>
+        <v>36.72712548451491</v>
       </c>
       <c r="J36" t="n">
         <v>100.7820394983358</v>
       </c>
       <c r="K36" t="n">
-        <v>172.2525578297307</v>
+        <v>172.2525578297306</v>
       </c>
       <c r="L36" t="n">
-        <v>231.6148212880142</v>
+        <v>231.6148212880141</v>
       </c>
       <c r="M36" t="n">
         <v>270.2835718777613</v>
@@ -33751,7 +33751,7 @@
         <v>277.4371737714968</v>
       </c>
       <c r="O36" t="n">
-        <v>253.800812249488</v>
+        <v>253.8008122494879</v>
       </c>
       <c r="P36" t="n">
         <v>203.6975273050714</v>
@@ -33760,16 +33760,16 @@
         <v>136.166402560678</v>
       </c>
       <c r="R36" t="n">
-        <v>66.23046985462337</v>
+        <v>66.23046985462335</v>
       </c>
       <c r="S36" t="n">
-        <v>19.81393330279243</v>
+        <v>19.81393330279242</v>
       </c>
       <c r="T36" t="n">
-        <v>4.299646919779516</v>
+        <v>4.299646919779515</v>
       </c>
       <c r="U36" t="n">
-        <v>0.07017922067104765</v>
+        <v>0.07017922067104762</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8943056972944426</v>
+        <v>0.8943056972944424</v>
       </c>
       <c r="H37" t="n">
-        <v>7.95119065412696</v>
+        <v>7.951190654126958</v>
       </c>
       <c r="I37" t="n">
         <v>26.89421133318197</v>
       </c>
       <c r="J37" t="n">
-        <v>63.2274127987171</v>
+        <v>63.22741279871708</v>
       </c>
       <c r="K37" t="n">
         <v>103.902061922027</v>
@@ -33824,7 +33824,7 @@
         <v>132.9588670323029</v>
       </c>
       <c r="M37" t="n">
-        <v>140.1864830768007</v>
+        <v>140.1864830768006</v>
       </c>
       <c r="N37" t="n">
         <v>136.8531618414306</v>
@@ -33836,19 +33836,19 @@
         <v>108.162209061866</v>
       </c>
       <c r="Q37" t="n">
-        <v>74.8859070707192</v>
+        <v>74.88590707071918</v>
       </c>
       <c r="R37" t="n">
-        <v>40.21123617107557</v>
+        <v>40.21123617107556</v>
       </c>
       <c r="S37" t="n">
         <v>15.58530928830405</v>
       </c>
       <c r="T37" t="n">
-        <v>3.821124342985345</v>
+        <v>3.821124342985344</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04878031076151512</v>
+        <v>0.0487803107615151</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,19 +33885,19 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.993701143351703</v>
+        <v>1.993701143351702</v>
       </c>
       <c r="H38" t="n">
         <v>20.41799183435063</v>
       </c>
       <c r="I38" t="n">
-        <v>76.8621633290666</v>
+        <v>76.86216332906658</v>
       </c>
       <c r="J38" t="n">
         <v>169.2128924155467</v>
       </c>
       <c r="K38" t="n">
-        <v>253.6062618136244</v>
+        <v>253.6062618136243</v>
       </c>
       <c r="L38" t="n">
         <v>314.6209931794741</v>
@@ -33906,28 +33906,28 @@
         <v>350.0764758875549</v>
       </c>
       <c r="N38" t="n">
-        <v>355.741079261103</v>
+        <v>355.7410792611029</v>
       </c>
       <c r="O38" t="n">
-        <v>335.9162135168995</v>
+        <v>335.9162135168994</v>
       </c>
       <c r="P38" t="n">
-        <v>286.6967165404043</v>
+        <v>286.6967165404042</v>
       </c>
       <c r="Q38" t="n">
-        <v>215.2972943441214</v>
+        <v>215.2972943441213</v>
       </c>
       <c r="R38" t="n">
         <v>125.2368294460665</v>
       </c>
       <c r="S38" t="n">
-        <v>45.43146480412697</v>
+        <v>45.43146480412696</v>
       </c>
       <c r="T38" t="n">
-        <v>8.727426755022083</v>
+        <v>8.727426755022082</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1594960914681362</v>
+        <v>0.1594960914681361</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,16 +33970,16 @@
         <v>10.30230959450979</v>
       </c>
       <c r="I39" t="n">
-        <v>36.72712548451492</v>
+        <v>36.72712548451491</v>
       </c>
       <c r="J39" t="n">
         <v>100.7820394983358</v>
       </c>
       <c r="K39" t="n">
-        <v>172.2525578297307</v>
+        <v>172.2525578297306</v>
       </c>
       <c r="L39" t="n">
-        <v>231.6148212880142</v>
+        <v>231.6148212880141</v>
       </c>
       <c r="M39" t="n">
         <v>270.2835718777613</v>
@@ -33988,7 +33988,7 @@
         <v>277.4371737714968</v>
       </c>
       <c r="O39" t="n">
-        <v>253.800812249488</v>
+        <v>253.8008122494879</v>
       </c>
       <c r="P39" t="n">
         <v>203.6975273050714</v>
@@ -33997,16 +33997,16 @@
         <v>136.166402560678</v>
       </c>
       <c r="R39" t="n">
-        <v>66.23046985462337</v>
+        <v>66.23046985462335</v>
       </c>
       <c r="S39" t="n">
-        <v>19.81393330279243</v>
+        <v>19.81393330279242</v>
       </c>
       <c r="T39" t="n">
-        <v>4.299646919779516</v>
+        <v>4.299646919779515</v>
       </c>
       <c r="U39" t="n">
-        <v>0.07017922067104765</v>
+        <v>0.07017922067104762</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8943056972944426</v>
+        <v>0.8943056972944424</v>
       </c>
       <c r="H40" t="n">
-        <v>7.95119065412696</v>
+        <v>7.951190654126958</v>
       </c>
       <c r="I40" t="n">
         <v>26.89421133318197</v>
       </c>
       <c r="J40" t="n">
-        <v>63.2274127987171</v>
+        <v>63.22741279871708</v>
       </c>
       <c r="K40" t="n">
         <v>103.902061922027</v>
@@ -34061,7 +34061,7 @@
         <v>132.9588670323029</v>
       </c>
       <c r="M40" t="n">
-        <v>140.1864830768007</v>
+        <v>140.1864830768006</v>
       </c>
       <c r="N40" t="n">
         <v>136.8531618414306</v>
@@ -34073,19 +34073,19 @@
         <v>108.162209061866</v>
       </c>
       <c r="Q40" t="n">
-        <v>74.8859070707192</v>
+        <v>74.88590707071918</v>
       </c>
       <c r="R40" t="n">
-        <v>40.21123617107557</v>
+        <v>40.21123617107556</v>
       </c>
       <c r="S40" t="n">
         <v>15.58530928830405</v>
       </c>
       <c r="T40" t="n">
-        <v>3.821124342985345</v>
+        <v>3.821124342985344</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04878031076151512</v>
+        <v>0.0487803107615151</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.993701143351703</v>
+        <v>1.993701143351702</v>
       </c>
       <c r="H41" t="n">
         <v>20.41799183435063</v>
       </c>
       <c r="I41" t="n">
-        <v>76.8621633290666</v>
+        <v>76.86216332906658</v>
       </c>
       <c r="J41" t="n">
         <v>169.2128924155467</v>
       </c>
       <c r="K41" t="n">
-        <v>253.6062618136244</v>
+        <v>253.6062618136243</v>
       </c>
       <c r="L41" t="n">
-        <v>314.6209931794741</v>
+        <v>314.620993179474</v>
       </c>
       <c r="M41" t="n">
-        <v>350.0764758875549</v>
+        <v>350.0764758875548</v>
       </c>
       <c r="N41" t="n">
-        <v>355.741079261103</v>
+        <v>355.7410792611029</v>
       </c>
       <c r="O41" t="n">
-        <v>335.9162135168995</v>
+        <v>335.9162135168993</v>
       </c>
       <c r="P41" t="n">
-        <v>286.6967165404047</v>
+        <v>286.6967165404042</v>
       </c>
       <c r="Q41" t="n">
-        <v>215.2972943441214</v>
+        <v>215.2972943441213</v>
       </c>
       <c r="R41" t="n">
         <v>125.2368294460665</v>
       </c>
       <c r="S41" t="n">
-        <v>45.43146480412697</v>
+        <v>45.43146480412696</v>
       </c>
       <c r="T41" t="n">
-        <v>8.727426755022083</v>
+        <v>8.72742675502208</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1594960914681362</v>
+        <v>0.1594960914681361</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.066724154199924</v>
+        <v>1.066724154199923</v>
       </c>
       <c r="H42" t="n">
         <v>10.30230959450979</v>
       </c>
       <c r="I42" t="n">
-        <v>36.72712548451492</v>
+        <v>36.72712548451491</v>
       </c>
       <c r="J42" t="n">
         <v>100.7820394983358</v>
       </c>
       <c r="K42" t="n">
-        <v>172.2525578297307</v>
+        <v>172.2525578297306</v>
       </c>
       <c r="L42" t="n">
-        <v>231.6148212880142</v>
+        <v>231.6148212880141</v>
       </c>
       <c r="M42" t="n">
-        <v>270.2835718777613</v>
+        <v>270.2835718777612</v>
       </c>
       <c r="N42" t="n">
         <v>277.4371737714968</v>
       </c>
       <c r="O42" t="n">
-        <v>253.800812249488</v>
+        <v>253.8008122494879</v>
       </c>
       <c r="P42" t="n">
         <v>203.6975273050714</v>
       </c>
       <c r="Q42" t="n">
-        <v>136.166402560678</v>
+        <v>136.1664025606779</v>
       </c>
       <c r="R42" t="n">
-        <v>66.23046985462337</v>
+        <v>66.23046985462334</v>
       </c>
       <c r="S42" t="n">
-        <v>19.81393330279243</v>
+        <v>19.81393330279242</v>
       </c>
       <c r="T42" t="n">
-        <v>4.299646919779516</v>
+        <v>4.299646919779514</v>
       </c>
       <c r="U42" t="n">
-        <v>0.07017922067104765</v>
+        <v>0.07017922067104762</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8943056972944426</v>
+        <v>0.8943056972944424</v>
       </c>
       <c r="H43" t="n">
-        <v>7.95119065412696</v>
+        <v>7.951190654126957</v>
       </c>
       <c r="I43" t="n">
         <v>26.89421133318197</v>
       </c>
       <c r="J43" t="n">
-        <v>63.2274127987171</v>
+        <v>63.22741279871708</v>
       </c>
       <c r="K43" t="n">
         <v>103.902061922027</v>
@@ -34298,10 +34298,10 @@
         <v>132.9588670323029</v>
       </c>
       <c r="M43" t="n">
-        <v>140.1864830768007</v>
+        <v>140.1864830768006</v>
       </c>
       <c r="N43" t="n">
-        <v>136.8531618414306</v>
+        <v>136.8531618414305</v>
       </c>
       <c r="O43" t="n">
         <v>126.4060452866727</v>
@@ -34310,19 +34310,19 @@
         <v>108.162209061866</v>
       </c>
       <c r="Q43" t="n">
-        <v>74.8859070707192</v>
+        <v>74.88590707071917</v>
       </c>
       <c r="R43" t="n">
-        <v>40.21123617107557</v>
+        <v>40.21123617107556</v>
       </c>
       <c r="S43" t="n">
         <v>15.58530928830405</v>
       </c>
       <c r="T43" t="n">
-        <v>3.821124342985345</v>
+        <v>3.821124342985344</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04878031076151512</v>
+        <v>0.04878031076151509</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.993701143351703</v>
+        <v>1.993701143351702</v>
       </c>
       <c r="H44" t="n">
         <v>20.41799183435063</v>
       </c>
       <c r="I44" t="n">
-        <v>76.8621633290666</v>
+        <v>76.86216332906658</v>
       </c>
       <c r="J44" t="n">
         <v>169.2128924155467</v>
       </c>
       <c r="K44" t="n">
-        <v>253.6062618136244</v>
+        <v>253.6062618136243</v>
       </c>
       <c r="L44" t="n">
-        <v>314.6209931794741</v>
+        <v>314.620993179474</v>
       </c>
       <c r="M44" t="n">
-        <v>350.0764758875549</v>
+        <v>350.0764758875556</v>
       </c>
       <c r="N44" t="n">
-        <v>355.741079261103</v>
+        <v>355.7410792611029</v>
       </c>
       <c r="O44" t="n">
-        <v>335.9162135168995</v>
+        <v>335.9162135168993</v>
       </c>
       <c r="P44" t="n">
-        <v>286.6967165404043</v>
+        <v>286.6967165404042</v>
       </c>
       <c r="Q44" t="n">
-        <v>215.2972943441214</v>
+        <v>215.2972943441213</v>
       </c>
       <c r="R44" t="n">
         <v>125.2368294460665</v>
       </c>
       <c r="S44" t="n">
-        <v>45.43146480412697</v>
+        <v>45.43146480412696</v>
       </c>
       <c r="T44" t="n">
-        <v>8.727426755022083</v>
+        <v>8.72742675502208</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1594960914681362</v>
+        <v>0.1594960914681361</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.066724154199924</v>
+        <v>1.066724154199923</v>
       </c>
       <c r="H45" t="n">
         <v>10.30230959450979</v>
       </c>
       <c r="I45" t="n">
-        <v>36.72712548451492</v>
+        <v>36.72712548451491</v>
       </c>
       <c r="J45" t="n">
         <v>100.7820394983358</v>
       </c>
       <c r="K45" t="n">
-        <v>172.2525578297307</v>
+        <v>172.2525578297306</v>
       </c>
       <c r="L45" t="n">
-        <v>231.6148212880142</v>
+        <v>231.6148212880141</v>
       </c>
       <c r="M45" t="n">
-        <v>270.2835718777613</v>
+        <v>270.2835718777612</v>
       </c>
       <c r="N45" t="n">
         <v>277.4371737714968</v>
       </c>
       <c r="O45" t="n">
-        <v>253.800812249488</v>
+        <v>253.8008122494879</v>
       </c>
       <c r="P45" t="n">
         <v>203.6975273050714</v>
       </c>
       <c r="Q45" t="n">
-        <v>136.166402560678</v>
+        <v>136.1664025606779</v>
       </c>
       <c r="R45" t="n">
-        <v>66.23046985462337</v>
+        <v>66.23046985462334</v>
       </c>
       <c r="S45" t="n">
-        <v>19.81393330279243</v>
+        <v>19.81393330279242</v>
       </c>
       <c r="T45" t="n">
-        <v>4.299646919779516</v>
+        <v>4.299646919779514</v>
       </c>
       <c r="U45" t="n">
-        <v>0.07017922067104765</v>
+        <v>0.07017922067104762</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8943056972944426</v>
+        <v>0.8943056972944424</v>
       </c>
       <c r="H46" t="n">
-        <v>7.95119065412696</v>
+        <v>7.951190654126957</v>
       </c>
       <c r="I46" t="n">
         <v>26.89421133318197</v>
       </c>
       <c r="J46" t="n">
-        <v>63.2274127987171</v>
+        <v>63.22741279871708</v>
       </c>
       <c r="K46" t="n">
         <v>103.902061922027</v>
@@ -34535,10 +34535,10 @@
         <v>132.9588670323029</v>
       </c>
       <c r="M46" t="n">
-        <v>140.1864830768007</v>
+        <v>140.1864830768006</v>
       </c>
       <c r="N46" t="n">
-        <v>136.8531618414306</v>
+        <v>136.8531618414305</v>
       </c>
       <c r="O46" t="n">
         <v>126.4060452866727</v>
@@ -34547,19 +34547,19 @@
         <v>108.162209061866</v>
       </c>
       <c r="Q46" t="n">
-        <v>74.8859070707192</v>
+        <v>74.88590707071917</v>
       </c>
       <c r="R46" t="n">
-        <v>40.21123617107557</v>
+        <v>40.21123617107556</v>
       </c>
       <c r="S46" t="n">
         <v>15.58530928830405</v>
       </c>
       <c r="T46" t="n">
-        <v>3.821124342985345</v>
+        <v>3.821124342985344</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04878031076151512</v>
+        <v>0.04878031076151509</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>42.31426078510307</v>
+        <v>42.31426078510312</v>
       </c>
       <c r="J11" t="n">
         <v>139.7929329299602</v>
       </c>
       <c r="K11" t="n">
-        <v>217.8416610188149</v>
+        <v>217.8416610188151</v>
       </c>
       <c r="L11" t="n">
-        <v>276.3089507468511</v>
+        <v>276.3089507468512</v>
       </c>
       <c r="M11" t="n">
-        <v>312.645212988123</v>
+        <v>312.6452129881232</v>
       </c>
       <c r="N11" t="n">
-        <v>318.4614564266569</v>
+        <v>318.4614564266571</v>
       </c>
       <c r="O11" t="n">
-        <v>298.5252541608752</v>
+        <v>298.5252541608755</v>
       </c>
       <c r="P11" t="n">
-        <v>249.1213547301729</v>
+        <v>249.121354730173</v>
       </c>
       <c r="Q11" t="n">
-        <v>179.1726197395232</v>
+        <v>179.1726197395234</v>
       </c>
       <c r="R11" t="n">
-        <v>90.20417955126999</v>
+        <v>90.20417955127007</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>44.24898706220364</v>
+        <v>44.24898706220365</v>
       </c>
       <c r="J12" t="n">
-        <v>80.17092516500243</v>
+        <v>209.1463304284775</v>
       </c>
       <c r="K12" t="n">
-        <v>149.8533239963973</v>
+        <v>149.8533239963974</v>
       </c>
       <c r="L12" t="n">
-        <v>209.0997345737845</v>
+        <v>209.0997345737846</v>
       </c>
       <c r="M12" t="n">
-        <v>247.1867913654333</v>
+        <v>247.1867913654334</v>
       </c>
       <c r="N12" t="n">
-        <v>256.0941455579551</v>
+        <v>256.0941455579552</v>
       </c>
       <c r="O12" t="n">
-        <v>230.6289225272657</v>
+        <v>230.6289225272658</v>
       </c>
       <c r="P12" t="n">
-        <v>310.9020913637193</v>
+        <v>181.9266861002428</v>
       </c>
       <c r="Q12" t="n">
-        <v>113.4193642716994</v>
+        <v>113.4193642716995</v>
       </c>
       <c r="R12" t="n">
         <v>149.0782578189699</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>42.5906568148152</v>
+        <v>42.59065681481525</v>
       </c>
       <c r="K13" t="n">
-        <v>332.717820715802</v>
+        <v>82.93740746931508</v>
       </c>
       <c r="L13" t="n">
-        <v>491.230908743839</v>
+        <v>491.2309087438391</v>
       </c>
       <c r="M13" t="n">
-        <v>117.6110431853148</v>
+        <v>535.3236497134177</v>
       </c>
       <c r="N13" t="n">
-        <v>365.8628212194142</v>
+        <v>350.8331505417373</v>
       </c>
       <c r="O13" t="n">
-        <v>485.4243570844131</v>
+        <v>485.4243570844133</v>
       </c>
       <c r="P13" t="n">
-        <v>85.78140840387948</v>
+        <v>85.78140840387955</v>
       </c>
       <c r="Q13" t="n">
-        <v>203.1688669098726</v>
+        <v>50.26634430593427</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>42.31426078510307</v>
+        <v>42.3142607851031</v>
       </c>
       <c r="J14" t="n">
         <v>139.7929329299602</v>
       </c>
       <c r="K14" t="n">
-        <v>217.8416610188149</v>
+        <v>217.841661018815</v>
       </c>
       <c r="L14" t="n">
-        <v>276.3089507468511</v>
+        <v>276.3089507468512</v>
       </c>
       <c r="M14" t="n">
-        <v>312.645212988123</v>
+        <v>312.6452129881231</v>
       </c>
       <c r="N14" t="n">
-        <v>318.4614564266569</v>
+        <v>318.461456426657</v>
       </c>
       <c r="O14" t="n">
-        <v>298.5252541608752</v>
+        <v>298.5252541608754</v>
       </c>
       <c r="P14" t="n">
-        <v>249.1213547301729</v>
+        <v>249.121354730173</v>
       </c>
       <c r="Q14" t="n">
-        <v>179.1726197395232</v>
+        <v>179.1726197395233</v>
       </c>
       <c r="R14" t="n">
-        <v>90.20417955126999</v>
+        <v>90.20417955127004</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>20.55473873451491</v>
+        <v>44.24898706220365</v>
       </c>
       <c r="J15" t="n">
-        <v>339.3612861146583</v>
+        <v>80.17092516500246</v>
       </c>
       <c r="K15" t="n">
-        <v>149.8533239963973</v>
+        <v>278.8287292598734</v>
       </c>
       <c r="L15" t="n">
-        <v>209.0997345737845</v>
+        <v>209.0997345737846</v>
       </c>
       <c r="M15" t="n">
-        <v>247.1867913654333</v>
+        <v>247.1867913654334</v>
       </c>
       <c r="N15" t="n">
         <v>256.0941455579551</v>
       </c>
       <c r="O15" t="n">
-        <v>230.6289225272657</v>
+        <v>230.6289225272658</v>
       </c>
       <c r="P15" t="n">
-        <v>181.9266861002427</v>
+        <v>181.9266861002428</v>
       </c>
       <c r="Q15" t="n">
-        <v>113.4193642716994</v>
+        <v>113.4193642716995</v>
       </c>
       <c r="R15" t="n">
-        <v>42.55755046047919</v>
+        <v>149.0782578189699</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>121.2994615099878</v>
+        <v>42.59065681481523</v>
       </c>
       <c r="K16" t="n">
         <v>332.717820715802</v>
@@ -35813,19 +35813,19 @@
         <v>491.230908743839</v>
       </c>
       <c r="M16" t="n">
-        <v>117.6110431853148</v>
+        <v>117.6110431853149</v>
       </c>
       <c r="N16" t="n">
-        <v>116.1042608658301</v>
+        <v>518.1577182818708</v>
       </c>
       <c r="O16" t="n">
-        <v>340.5587545879688</v>
+        <v>485.4243570844132</v>
       </c>
       <c r="P16" t="n">
-        <v>401.6967665587356</v>
+        <v>86.38903394536271</v>
       </c>
       <c r="Q16" t="n">
-        <v>203.1688669098726</v>
+        <v>50.26634430593425</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>42.31426078510307</v>
+        <v>42.3142607851031</v>
       </c>
       <c r="J17" t="n">
         <v>139.7929329299602</v>
@@ -35889,25 +35889,25 @@
         <v>217.841661018815</v>
       </c>
       <c r="L17" t="n">
-        <v>276.3089507468511</v>
+        <v>276.3089507468512</v>
       </c>
       <c r="M17" t="n">
-        <v>312.645212988123</v>
+        <v>312.6452129881231</v>
       </c>
       <c r="N17" t="n">
-        <v>318.4614564266569</v>
+        <v>318.461456426657</v>
       </c>
       <c r="O17" t="n">
-        <v>298.5252541608753</v>
+        <v>298.5252541608754</v>
       </c>
       <c r="P17" t="n">
-        <v>249.1213547301729</v>
+        <v>249.121354730173</v>
       </c>
       <c r="Q17" t="n">
         <v>179.1726197395233</v>
       </c>
       <c r="R17" t="n">
-        <v>90.20417955127002</v>
+        <v>90.20417955127004</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>44.24898706220364</v>
+        <v>20.55473873451492</v>
       </c>
       <c r="J18" t="n">
-        <v>315.6670377869692</v>
+        <v>339.3612861146578</v>
       </c>
       <c r="K18" t="n">
         <v>149.8533239963973</v>
       </c>
       <c r="L18" t="n">
-        <v>209.0997345737845</v>
+        <v>209.0997345737846</v>
       </c>
       <c r="M18" t="n">
-        <v>247.1867913654333</v>
+        <v>247.1867913654334</v>
       </c>
       <c r="N18" t="n">
         <v>256.0941455579551</v>
       </c>
       <c r="O18" t="n">
-        <v>230.6289225272657</v>
+        <v>230.6289225272658</v>
       </c>
       <c r="P18" t="n">
-        <v>181.9266861002427</v>
+        <v>181.9266861002428</v>
       </c>
       <c r="Q18" t="n">
         <v>113.4193642716995</v>
       </c>
       <c r="R18" t="n">
-        <v>42.55755046047921</v>
+        <v>42.55755046047922</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>42.59065681481522</v>
+        <v>121.2994615099878</v>
       </c>
       <c r="K19" t="n">
-        <v>82.93740746931502</v>
+        <v>332.717820715802</v>
       </c>
       <c r="L19" t="n">
         <v>491.230908743839</v>
       </c>
       <c r="M19" t="n">
-        <v>117.6110431853148</v>
+        <v>535.3236497134177</v>
       </c>
       <c r="N19" t="n">
-        <v>299.7278763110451</v>
+        <v>403.8614318962435</v>
       </c>
       <c r="O19" t="n">
-        <v>485.4243570844131</v>
+        <v>103.9068577882483</v>
       </c>
       <c r="P19" t="n">
-        <v>401.6967665587357</v>
+        <v>85.78140840387952</v>
       </c>
       <c r="Q19" t="n">
-        <v>203.1688669098727</v>
+        <v>50.26634430593425</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>42.31426078510307</v>
+        <v>42.3142607851031</v>
       </c>
       <c r="J20" t="n">
         <v>139.7929329299602</v>
@@ -36126,25 +36126,25 @@
         <v>217.841661018815</v>
       </c>
       <c r="L20" t="n">
-        <v>276.3089507468511</v>
+        <v>276.3089507468512</v>
       </c>
       <c r="M20" t="n">
-        <v>312.645212988123</v>
+        <v>312.6452129881231</v>
       </c>
       <c r="N20" t="n">
-        <v>318.4614564266569</v>
+        <v>318.461456426657</v>
       </c>
       <c r="O20" t="n">
-        <v>298.5252541608753</v>
+        <v>298.5252541608754</v>
       </c>
       <c r="P20" t="n">
-        <v>249.1213547301729</v>
+        <v>249.121354730173</v>
       </c>
       <c r="Q20" t="n">
         <v>179.1726197395233</v>
       </c>
       <c r="R20" t="n">
-        <v>90.20417955127002</v>
+        <v>90.20417955127004</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>20.55473873451491</v>
+        <v>44.24898706220365</v>
       </c>
       <c r="J21" t="n">
-        <v>232.8405787561673</v>
+        <v>209.1463304284785</v>
       </c>
       <c r="K21" t="n">
         <v>149.8533239963973</v>
       </c>
       <c r="L21" t="n">
-        <v>209.0997345737845</v>
+        <v>209.0997345737846</v>
       </c>
       <c r="M21" t="n">
-        <v>247.1867913654333</v>
+        <v>247.1867913654334</v>
       </c>
       <c r="N21" t="n">
         <v>256.0941455579551</v>
       </c>
       <c r="O21" t="n">
-        <v>230.6289225272657</v>
+        <v>230.6289225272658</v>
       </c>
       <c r="P21" t="n">
-        <v>181.9266861002427</v>
+        <v>181.9266861002428</v>
       </c>
       <c r="Q21" t="n">
         <v>113.4193642716995</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>42.59065681481522</v>
+        <v>42.59065681481523</v>
       </c>
       <c r="K22" t="n">
-        <v>82.93740746931502</v>
+        <v>82.93740746931505</v>
       </c>
       <c r="L22" t="n">
-        <v>323.9063410037056</v>
+        <v>323.9063410037052</v>
       </c>
       <c r="M22" t="n">
-        <v>535.3236497134176</v>
+        <v>535.3236497134177</v>
       </c>
       <c r="N22" t="n">
         <v>518.1577182818708</v>
       </c>
       <c r="O22" t="n">
-        <v>485.4243570844131</v>
+        <v>485.4243570844132</v>
       </c>
       <c r="P22" t="n">
-        <v>85.7814084038795</v>
+        <v>85.78140840387952</v>
       </c>
       <c r="Q22" t="n">
-        <v>50.26634430593424</v>
+        <v>50.26634430593425</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>42.3142607851031</v>
+        <v>42.31426078510307</v>
       </c>
       <c r="J23" t="n">
         <v>139.7929329299602</v>
@@ -36363,25 +36363,25 @@
         <v>217.841661018815</v>
       </c>
       <c r="L23" t="n">
-        <v>276.3089507468512</v>
+        <v>276.3089507468511</v>
       </c>
       <c r="M23" t="n">
-        <v>312.6452129881231</v>
+        <v>312.645212988123</v>
       </c>
       <c r="N23" t="n">
-        <v>318.461456426657</v>
+        <v>318.4614564266569</v>
       </c>
       <c r="O23" t="n">
-        <v>298.5252541608754</v>
+        <v>298.5252541608753</v>
       </c>
       <c r="P23" t="n">
-        <v>249.121354730173</v>
+        <v>249.1213547301729</v>
       </c>
       <c r="Q23" t="n">
         <v>179.1726197395233</v>
       </c>
       <c r="R23" t="n">
-        <v>90.20417955127004</v>
+        <v>90.20417955127002</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>20.55473873451492</v>
+        <v>20.55473873451491</v>
       </c>
       <c r="J24" t="n">
-        <v>80.17092516500246</v>
+        <v>339.3612861146578</v>
       </c>
       <c r="K24" t="n">
         <v>149.8533239963973</v>
       </c>
       <c r="L24" t="n">
-        <v>209.0997345737846</v>
+        <v>209.0997345737845</v>
       </c>
       <c r="M24" t="n">
-        <v>247.1867913654334</v>
+        <v>247.1867913654333</v>
       </c>
       <c r="N24" t="n">
         <v>256.0941455579551</v>
       </c>
       <c r="O24" t="n">
-        <v>489.8192834769209</v>
+        <v>230.6289225272657</v>
       </c>
       <c r="P24" t="n">
-        <v>181.9266861002428</v>
+        <v>181.9266861002427</v>
       </c>
       <c r="Q24" t="n">
         <v>113.4193642716995</v>
       </c>
       <c r="R24" t="n">
-        <v>42.55755046047922</v>
+        <v>42.55755046047921</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>42.59065681481523</v>
+        <v>42.59065681481522</v>
       </c>
       <c r="K25" t="n">
-        <v>82.93740746931505</v>
+        <v>82.93740746931502</v>
       </c>
       <c r="L25" t="n">
-        <v>323.9063410037052</v>
+        <v>491.230908743839</v>
       </c>
       <c r="M25" t="n">
-        <v>535.3236497134177</v>
+        <v>535.3236497134176</v>
       </c>
       <c r="N25" t="n">
         <v>518.1577182818708</v>
       </c>
       <c r="O25" t="n">
-        <v>485.4243570844132</v>
+        <v>318.0997893442798</v>
       </c>
       <c r="P25" t="n">
-        <v>85.78140840387952</v>
+        <v>85.7814084038795</v>
       </c>
       <c r="Q25" t="n">
-        <v>50.26634430593425</v>
+        <v>50.26634430593424</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>42.3142607851031</v>
+        <v>42.31426078510307</v>
       </c>
       <c r="J26" t="n">
         <v>139.7929329299602</v>
@@ -36600,25 +36600,25 @@
         <v>217.841661018815</v>
       </c>
       <c r="L26" t="n">
-        <v>276.3089507468512</v>
+        <v>276.3089507468511</v>
       </c>
       <c r="M26" t="n">
-        <v>312.6452129881231</v>
+        <v>312.645212988123</v>
       </c>
       <c r="N26" t="n">
-        <v>318.461456426657</v>
+        <v>318.4614564266569</v>
       </c>
       <c r="O26" t="n">
-        <v>298.5252541608754</v>
+        <v>298.5252541608753</v>
       </c>
       <c r="P26" t="n">
-        <v>249.121354730173</v>
+        <v>249.1213547301729</v>
       </c>
       <c r="Q26" t="n">
         <v>179.1726197395233</v>
       </c>
       <c r="R26" t="n">
-        <v>90.20417955127004</v>
+        <v>90.20417955127002</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>44.24898706220365</v>
+        <v>20.55473873451491</v>
       </c>
       <c r="J27" t="n">
-        <v>80.17092516500246</v>
+        <v>339.3612861146578</v>
       </c>
       <c r="K27" t="n">
         <v>149.8533239963973</v>
       </c>
       <c r="L27" t="n">
-        <v>209.0997345737846</v>
+        <v>209.0997345737845</v>
       </c>
       <c r="M27" t="n">
-        <v>247.1867913654334</v>
+        <v>247.1867913654333</v>
       </c>
       <c r="N27" t="n">
-        <v>385.0695508214309</v>
+        <v>256.0941455579551</v>
       </c>
       <c r="O27" t="n">
-        <v>230.6289225272658</v>
+        <v>230.6289225272657</v>
       </c>
       <c r="P27" t="n">
-        <v>181.9266861002428</v>
+        <v>181.9266861002427</v>
       </c>
       <c r="Q27" t="n">
         <v>113.4193642716995</v>
       </c>
       <c r="R27" t="n">
-        <v>149.0782578189699</v>
+        <v>42.55755046047921</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>121.2994615099878</v>
+        <v>42.59065681481522</v>
       </c>
       <c r="K28" t="n">
         <v>332.717820715802</v>
       </c>
       <c r="L28" t="n">
-        <v>491.230908743839</v>
+        <v>111.0401071366016</v>
       </c>
       <c r="M28" t="n">
-        <v>125.6479632928097</v>
+        <v>535.3236497134176</v>
       </c>
       <c r="N28" t="n">
-        <v>116.1042608658302</v>
+        <v>518.1577182818708</v>
       </c>
       <c r="O28" t="n">
-        <v>485.4243570844132</v>
+        <v>103.9068577882483</v>
       </c>
       <c r="P28" t="n">
-        <v>401.6967665587357</v>
+        <v>277.4822057167229</v>
       </c>
       <c r="Q28" t="n">
-        <v>50.26634430593425</v>
+        <v>203.1688669098727</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>42.3142607851031</v>
+        <v>42.31426078510307</v>
       </c>
       <c r="J29" t="n">
         <v>139.7929329299602</v>
@@ -36837,25 +36837,25 @@
         <v>217.841661018815</v>
       </c>
       <c r="L29" t="n">
-        <v>276.3089507468512</v>
+        <v>276.3089507468511</v>
       </c>
       <c r="M29" t="n">
-        <v>312.6452129881231</v>
+        <v>312.645212988123</v>
       </c>
       <c r="N29" t="n">
-        <v>318.461456426657</v>
+        <v>318.4614564266569</v>
       </c>
       <c r="O29" t="n">
-        <v>298.5252541608754</v>
+        <v>298.5252541608753</v>
       </c>
       <c r="P29" t="n">
-        <v>249.121354730173</v>
+        <v>249.1213547301729</v>
       </c>
       <c r="Q29" t="n">
         <v>179.1726197395233</v>
       </c>
       <c r="R29" t="n">
-        <v>90.20417955127004</v>
+        <v>90.20417955127002</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>20.55473873451492</v>
+        <v>20.55473873451491</v>
       </c>
       <c r="J30" t="n">
-        <v>80.17092516500246</v>
+        <v>339.3612861146578</v>
       </c>
       <c r="K30" t="n">
         <v>149.8533239963973</v>
       </c>
       <c r="L30" t="n">
-        <v>209.0997345737846</v>
+        <v>209.0997345737845</v>
       </c>
       <c r="M30" t="n">
-        <v>247.1867913654334</v>
+        <v>247.1867913654333</v>
       </c>
       <c r="N30" t="n">
-        <v>408.7637991491197</v>
+        <v>256.0941455579551</v>
       </c>
       <c r="O30" t="n">
-        <v>230.6289225272658</v>
+        <v>230.6289225272657</v>
       </c>
       <c r="P30" t="n">
-        <v>181.9266861002428</v>
+        <v>181.9266861002427</v>
       </c>
       <c r="Q30" t="n">
         <v>113.4193642716995</v>
       </c>
       <c r="R30" t="n">
-        <v>149.0782578189699</v>
+        <v>42.55755046047921</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>42.59065681481523</v>
+        <v>42.59065681481522</v>
       </c>
       <c r="K31" t="n">
-        <v>82.93740746931505</v>
+        <v>82.93740746931502</v>
       </c>
       <c r="L31" t="n">
-        <v>323.9063410037062</v>
+        <v>323.9063410037056</v>
       </c>
       <c r="M31" t="n">
-        <v>535.3236497134177</v>
+        <v>535.3236497134176</v>
       </c>
       <c r="N31" t="n">
         <v>518.1577182818708</v>
       </c>
       <c r="O31" t="n">
-        <v>485.4243570844132</v>
+        <v>485.4243570844131</v>
       </c>
       <c r="P31" t="n">
-        <v>85.78140840387952</v>
+        <v>85.7814084038795</v>
       </c>
       <c r="Q31" t="n">
-        <v>50.26634430593425</v>
+        <v>50.26634430593424</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>42.3142607851031</v>
+        <v>42.31426078510307</v>
       </c>
       <c r="J32" t="n">
         <v>139.7929329299602</v>
@@ -37074,25 +37074,25 @@
         <v>217.841661018815</v>
       </c>
       <c r="L32" t="n">
-        <v>276.3089507468512</v>
+        <v>276.3089507468511</v>
       </c>
       <c r="M32" t="n">
-        <v>312.6452129881231</v>
+        <v>312.645212988123</v>
       </c>
       <c r="N32" t="n">
-        <v>318.461456426657</v>
+        <v>318.4614564266569</v>
       </c>
       <c r="O32" t="n">
-        <v>298.5252541608754</v>
+        <v>298.5252541608753</v>
       </c>
       <c r="P32" t="n">
-        <v>249.121354730173</v>
+        <v>249.1213547301729</v>
       </c>
       <c r="Q32" t="n">
         <v>179.1726197395233</v>
       </c>
       <c r="R32" t="n">
-        <v>90.20417955127004</v>
+        <v>90.20417955127002</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>44.24898706220365</v>
+        <v>20.55473873451491</v>
       </c>
       <c r="J33" t="n">
-        <v>80.17092516500246</v>
+        <v>339.3612861146578</v>
       </c>
       <c r="K33" t="n">
         <v>149.8533239963973</v>
       </c>
       <c r="L33" t="n">
-        <v>209.0997345737846</v>
+        <v>209.0997345737845</v>
       </c>
       <c r="M33" t="n">
-        <v>247.1867913654334</v>
+        <v>247.1867913654333</v>
       </c>
       <c r="N33" t="n">
         <v>256.0941455579551</v>
       </c>
       <c r="O33" t="n">
-        <v>230.6289225272658</v>
+        <v>230.6289225272657</v>
       </c>
       <c r="P33" t="n">
-        <v>181.9266861002428</v>
+        <v>181.9266861002427</v>
       </c>
       <c r="Q33" t="n">
-        <v>242.3947695351754</v>
+        <v>113.4193642716995</v>
       </c>
       <c r="R33" t="n">
-        <v>149.0782578189699</v>
+        <v>42.55755046047921</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37232,16 +37232,16 @@
         <v>332.717820715802</v>
       </c>
       <c r="L34" t="n">
-        <v>111.0401071366017</v>
+        <v>491.230908743839</v>
       </c>
       <c r="M34" t="n">
-        <v>117.6110431853149</v>
+        <v>117.6110431853148</v>
       </c>
       <c r="N34" t="n">
-        <v>351.4294599766241</v>
+        <v>116.1042608658302</v>
       </c>
       <c r="O34" t="n">
-        <v>485.4243570844132</v>
+        <v>340.5587545879692</v>
       </c>
       <c r="P34" t="n">
         <v>401.6967665587357</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>42.3142607851031</v>
+        <v>42.31426078510307</v>
       </c>
       <c r="J35" t="n">
         <v>139.7929329299602</v>
@@ -37311,25 +37311,25 @@
         <v>217.841661018815</v>
       </c>
       <c r="L35" t="n">
-        <v>276.3089507468512</v>
+        <v>276.3089507468511</v>
       </c>
       <c r="M35" t="n">
-        <v>312.6452129881231</v>
+        <v>312.645212988123</v>
       </c>
       <c r="N35" t="n">
-        <v>318.461456426657</v>
+        <v>318.4614564266569</v>
       </c>
       <c r="O35" t="n">
-        <v>298.5252541608754</v>
+        <v>298.5252541608753</v>
       </c>
       <c r="P35" t="n">
-        <v>249.121354730173</v>
+        <v>249.1213547301729</v>
       </c>
       <c r="Q35" t="n">
         <v>179.1726197395233</v>
       </c>
       <c r="R35" t="n">
-        <v>90.20417955127004</v>
+        <v>90.20417955127002</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>20.55473873451492</v>
+        <v>20.55473873451491</v>
       </c>
       <c r="J36" t="n">
-        <v>80.17092516500246</v>
+        <v>339.3612861146578</v>
       </c>
       <c r="K36" t="n">
         <v>149.8533239963973</v>
       </c>
       <c r="L36" t="n">
-        <v>209.0997345737846</v>
+        <v>209.0997345737845</v>
       </c>
       <c r="M36" t="n">
-        <v>506.3771523150886</v>
+        <v>247.1867913654333</v>
       </c>
       <c r="N36" t="n">
         <v>256.0941455579551</v>
       </c>
       <c r="O36" t="n">
-        <v>230.6289225272658</v>
+        <v>230.6289225272657</v>
       </c>
       <c r="P36" t="n">
-        <v>181.9266861002428</v>
+        <v>181.9266861002427</v>
       </c>
       <c r="Q36" t="n">
         <v>113.4193642716995</v>
       </c>
       <c r="R36" t="n">
-        <v>42.55755046047922</v>
+        <v>42.55755046047921</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>121.2994615099878</v>
+        <v>42.59065681481522</v>
       </c>
       <c r="K37" t="n">
-        <v>82.93740746931505</v>
+        <v>82.93740746931502</v>
       </c>
       <c r="L37" t="n">
-        <v>194.0922620778411</v>
+        <v>323.9063410037056</v>
       </c>
       <c r="M37" t="n">
-        <v>117.6110431853149</v>
+        <v>535.3236497134176</v>
       </c>
       <c r="N37" t="n">
         <v>518.1577182818708</v>
       </c>
       <c r="O37" t="n">
-        <v>485.4243570844132</v>
+        <v>485.4243570844131</v>
       </c>
       <c r="P37" t="n">
-        <v>401.6967665587357</v>
+        <v>85.7814084038795</v>
       </c>
       <c r="Q37" t="n">
-        <v>203.1688669098727</v>
+        <v>50.26634430593424</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>42.3142607851031</v>
+        <v>42.31426078510307</v>
       </c>
       <c r="J38" t="n">
         <v>139.7929329299602</v>
@@ -37548,25 +37548,25 @@
         <v>217.841661018815</v>
       </c>
       <c r="L38" t="n">
-        <v>276.3089507468512</v>
+        <v>276.3089507468511</v>
       </c>
       <c r="M38" t="n">
-        <v>312.6452129881231</v>
+        <v>312.645212988123</v>
       </c>
       <c r="N38" t="n">
-        <v>318.461456426657</v>
+        <v>318.4614564266569</v>
       </c>
       <c r="O38" t="n">
-        <v>298.5252541608754</v>
+        <v>298.5252541608753</v>
       </c>
       <c r="P38" t="n">
-        <v>249.121354730173</v>
+        <v>249.1213547301729</v>
       </c>
       <c r="Q38" t="n">
         <v>179.1726197395233</v>
       </c>
       <c r="R38" t="n">
-        <v>90.20417955126973</v>
+        <v>90.20417955127002</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>44.24898706220365</v>
+        <v>20.55473873451491</v>
       </c>
       <c r="J39" t="n">
-        <v>209.1463304284785</v>
+        <v>339.3612861146578</v>
       </c>
       <c r="K39" t="n">
         <v>149.8533239963973</v>
       </c>
       <c r="L39" t="n">
-        <v>209.0997345737846</v>
+        <v>209.0997345737845</v>
       </c>
       <c r="M39" t="n">
-        <v>247.1867913654334</v>
+        <v>247.1867913654333</v>
       </c>
       <c r="N39" t="n">
         <v>256.0941455579551</v>
       </c>
       <c r="O39" t="n">
-        <v>230.6289225272658</v>
+        <v>230.6289225272657</v>
       </c>
       <c r="P39" t="n">
-        <v>181.9266861002428</v>
+        <v>181.9266861002427</v>
       </c>
       <c r="Q39" t="n">
         <v>113.4193642716995</v>
       </c>
       <c r="R39" t="n">
-        <v>149.0782578189699</v>
+        <v>42.55755046047921</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>121.2994615099878</v>
+        <v>42.59065681481522</v>
       </c>
       <c r="K40" t="n">
-        <v>332.717820715802</v>
+        <v>82.93740746931502</v>
       </c>
       <c r="L40" t="n">
-        <v>491.230908743839</v>
+        <v>323.9063410037056</v>
       </c>
       <c r="M40" t="n">
-        <v>535.3236497134177</v>
+        <v>535.3236497134176</v>
       </c>
       <c r="N40" t="n">
-        <v>116.1042608658302</v>
+        <v>518.1577182818708</v>
       </c>
       <c r="O40" t="n">
-        <v>103.9068577882483</v>
+        <v>485.4243570844131</v>
       </c>
       <c r="P40" t="n">
-        <v>220.6360568303537</v>
+        <v>85.7814084038795</v>
       </c>
       <c r="Q40" t="n">
-        <v>203.1688669098727</v>
+        <v>50.26634430593424</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>42.3142607851031</v>
+        <v>42.31426078510307</v>
       </c>
       <c r="J41" t="n">
         <v>139.7929329299602</v>
       </c>
       <c r="K41" t="n">
-        <v>217.841661018815</v>
+        <v>217.8416610188149</v>
       </c>
       <c r="L41" t="n">
-        <v>276.3089507468512</v>
+        <v>276.3089507468511</v>
       </c>
       <c r="M41" t="n">
-        <v>312.6452129881231</v>
+        <v>312.645212988123</v>
       </c>
       <c r="N41" t="n">
-        <v>318.461456426657</v>
+        <v>318.4614564266569</v>
       </c>
       <c r="O41" t="n">
-        <v>298.5252541608754</v>
+        <v>298.5252541608752</v>
       </c>
       <c r="P41" t="n">
-        <v>249.1213547301735</v>
+        <v>249.1213547301729</v>
       </c>
       <c r="Q41" t="n">
-        <v>179.1726197395233</v>
+        <v>179.1726197395232</v>
       </c>
       <c r="R41" t="n">
-        <v>90.20417955127004</v>
+        <v>90.20417955126999</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>44.24898706220365</v>
+        <v>44.24898706220364</v>
       </c>
       <c r="J42" t="n">
-        <v>315.667037786969</v>
+        <v>209.1463304284788</v>
       </c>
       <c r="K42" t="n">
         <v>149.8533239963973</v>
       </c>
       <c r="L42" t="n">
-        <v>209.0997345737846</v>
+        <v>209.0997345737845</v>
       </c>
       <c r="M42" t="n">
-        <v>247.1867913654334</v>
+        <v>247.1867913654333</v>
       </c>
       <c r="N42" t="n">
         <v>256.0941455579551</v>
       </c>
       <c r="O42" t="n">
-        <v>230.6289225272658</v>
+        <v>230.6289225272657</v>
       </c>
       <c r="P42" t="n">
-        <v>181.9266861002428</v>
+        <v>181.9266861002427</v>
       </c>
       <c r="Q42" t="n">
-        <v>113.4193642716995</v>
+        <v>113.4193642716994</v>
       </c>
       <c r="R42" t="n">
-        <v>42.55755046047922</v>
+        <v>149.0782578189699</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>121.2994615099878</v>
+        <v>42.5906568148152</v>
       </c>
       <c r="K43" t="n">
-        <v>332.717820715802</v>
+        <v>82.93740746931502</v>
       </c>
       <c r="L43" t="n">
-        <v>491.230908743839</v>
+        <v>111.0401071366016</v>
       </c>
       <c r="M43" t="n">
-        <v>117.6110431853149</v>
+        <v>535.3236497134176</v>
       </c>
       <c r="N43" t="n">
-        <v>116.1042608658302</v>
+        <v>518.1577182818708</v>
       </c>
       <c r="O43" t="n">
-        <v>340.5587545879699</v>
+        <v>485.4243570844131</v>
       </c>
       <c r="P43" t="n">
-        <v>401.6967665587357</v>
+        <v>298.6476422709832</v>
       </c>
       <c r="Q43" t="n">
-        <v>203.1688669098727</v>
+        <v>50.26634430593423</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>42.3142607851031</v>
+        <v>42.31426078510307</v>
       </c>
       <c r="J44" t="n">
         <v>139.7929329299602</v>
       </c>
       <c r="K44" t="n">
-        <v>217.841661018815</v>
+        <v>217.8416610188149</v>
       </c>
       <c r="L44" t="n">
-        <v>276.3089507468512</v>
+        <v>276.3089507468511</v>
       </c>
       <c r="M44" t="n">
-        <v>312.6452129881231</v>
+        <v>312.6452129881238</v>
       </c>
       <c r="N44" t="n">
-        <v>318.461456426657</v>
+        <v>318.4614564266569</v>
       </c>
       <c r="O44" t="n">
-        <v>298.5252541608754</v>
+        <v>298.5252541608752</v>
       </c>
       <c r="P44" t="n">
-        <v>249.121354730173</v>
+        <v>249.1213547301729</v>
       </c>
       <c r="Q44" t="n">
-        <v>179.1726197395233</v>
+        <v>179.1726197395232</v>
       </c>
       <c r="R44" t="n">
-        <v>90.20417955127004</v>
+        <v>90.20417955126999</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>44.24898706220365</v>
+        <v>44.24898706220364</v>
       </c>
       <c r="J45" t="n">
-        <v>209.1463304284785</v>
+        <v>209.1463304284788</v>
       </c>
       <c r="K45" t="n">
         <v>149.8533239963973</v>
       </c>
       <c r="L45" t="n">
-        <v>209.0997345737846</v>
+        <v>209.0997345737845</v>
       </c>
       <c r="M45" t="n">
-        <v>247.1867913654334</v>
+        <v>247.1867913654333</v>
       </c>
       <c r="N45" t="n">
         <v>256.0941455579551</v>
       </c>
       <c r="O45" t="n">
-        <v>230.6289225272658</v>
+        <v>230.6289225272657</v>
       </c>
       <c r="P45" t="n">
-        <v>181.9266861002428</v>
+        <v>181.9266861002427</v>
       </c>
       <c r="Q45" t="n">
-        <v>113.4193642716995</v>
+        <v>113.4193642716994</v>
       </c>
       <c r="R45" t="n">
         <v>149.0782578189699</v>
@@ -38177,25 +38177,25 @@
         <v>121.2994615099878</v>
       </c>
       <c r="K46" t="n">
-        <v>332.717820715802</v>
+        <v>82.93740746931502</v>
       </c>
       <c r="L46" t="n">
-        <v>325.8293481275201</v>
+        <v>111.0401071366016</v>
       </c>
       <c r="M46" t="n">
-        <v>117.6110431853149</v>
+        <v>535.3236497134176</v>
       </c>
       <c r="N46" t="n">
         <v>518.1577182818708</v>
       </c>
       <c r="O46" t="n">
-        <v>103.9068577882483</v>
+        <v>485.4243570844131</v>
       </c>
       <c r="P46" t="n">
-        <v>401.6967665587357</v>
+        <v>85.78140840387948</v>
       </c>
       <c r="Q46" t="n">
-        <v>203.1688669098727</v>
+        <v>184.4237734778655</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
